--- a/Results/Excel Sheets/Preliminary Results.xlsx
+++ b/Results/Excel Sheets/Preliminary Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\OneDrive\Documentos\IST\Master Thesis\MADCoM\Results\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7252C7E-FDD0-4FE3-A836-AD04355A18CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF655721-6625-4ABF-B377-388C0AE7FF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="7" xr2:uid="{03D7EE80-680F-421B-99E1-BEBDEF059FA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="6" xr2:uid="{03D7EE80-680F-421B-99E1-BEBDEF059FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="HD Fraction" sheetId="6" r:id="rId5"/>
     <sheet name="Mutation Probability" sheetId="7" r:id="rId6"/>
     <sheet name="Cut Probabilities" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="Tournament Size" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="91">
   <si>
     <t>Instance</t>
   </si>
@@ -235,12 +236,96 @@
   <si>
     <t>F1_g-6,443164,439252,443918,441057,441512</t>
   </si>
+  <si>
+    <t>madcom -trnsize 4</t>
+  </si>
+  <si>
+    <t>F1_g-6,441749,442171,441614,442868,439513</t>
+  </si>
+  <si>
+    <t>Hefei-10,1761528,1758534,1758710,1764783,1767010</t>
+  </si>
+  <si>
+    <t>egl-g2-E,1615025,1620829,1622008,1614874,1613664</t>
+  </si>
+  <si>
+    <t>Beijing-3,1546737,1548428,1553099,1544855,1538857</t>
+  </si>
+  <si>
+    <t>Beijing-5,2208115,2213952,2210454,2223994,2217440</t>
+  </si>
+  <si>
+    <t>madcom -trnsize 8</t>
+  </si>
+  <si>
+    <t>F1_g-6,441502,439407,440092,442570,440051</t>
+  </si>
+  <si>
+    <t>Hefei-10,1758421,1757600,1766321,1751337,1769250</t>
+  </si>
+  <si>
+    <t>egl-g2-E,1616604,1612441,1614028,1622665,1619066</t>
+  </si>
+  <si>
+    <t>Beijing-3,1535747,1550361,1547121,1545997,1539243</t>
+  </si>
+  <si>
+    <t>Beijing-5,2212347,2211521,2217817,2216058,2218257</t>
+  </si>
+  <si>
+    <t>madcom -trnsize 16</t>
+  </si>
+  <si>
+    <t>F1_g-6,440502,438473,441636,439934,440234</t>
+  </si>
+  <si>
+    <t>Hefei-10,1757317,1756829,1751392,1757702,1754758</t>
+  </si>
+  <si>
+    <t>egl-g2-E,1617531,1621526,1616536,1621326,1616713</t>
+  </si>
+  <si>
+    <t>Beijing-3,1537967,1541927,1550634,1548762,1556280</t>
+  </si>
+  <si>
+    <t>Beijing-5,2202310,2203355,2201619,2217386,2214817</t>
+  </si>
+  <si>
+    <t>madcom -trnsize 25</t>
+  </si>
+  <si>
+    <t>F1_g-6,440829,438870,442108,440583,441650</t>
+  </si>
+  <si>
+    <t>Hefei-10,1762180,1747652,1753984,1762539,1757865</t>
+  </si>
+  <si>
+    <t>egl-g2-E,1620190,1623219,1615951,1621629,1613211</t>
+  </si>
+  <si>
+    <t>Beijing-3,1545190,1551486,1545373,1547102,1557174</t>
+  </si>
+  <si>
+    <t>Beijing-5,2210725,2207253,2216481,2206270,2218478</t>
+  </si>
+  <si>
+    <t>Probabilities</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +348,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -514,12 +615,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -580,6 +705,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,12 +744,314 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1153,64 +1586,64 @@
   <sheetData>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="46" t="s">
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="46" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="46" t="s">
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="48"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="44" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="44" t="s">
+      <c r="M4" s="47"/>
+      <c r="N4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44" t="s">
+      <c r="O4" s="47"/>
+      <c r="P4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="44" t="s">
+      <c r="Q4" s="47"/>
+      <c r="R4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="44" t="s">
+      <c r="S4" s="47"/>
+      <c r="T4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="45"/>
+      <c r="U4" s="47"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="str">
@@ -1275,7 +1708,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -1349,7 +1782,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1421,7 +1854,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1926,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1998,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="51"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
@@ -1684,51 +2117,51 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="46" t="s">
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="46" t="s">
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="44" t="s">
+      <c r="G14" s="47"/>
+      <c r="H14" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="44" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="44" t="s">
+      <c r="K14" s="47"/>
+      <c r="L14" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="44" t="s">
+      <c r="M14" s="47"/>
+      <c r="N14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="44" t="s">
+      <c r="O14" s="47"/>
+      <c r="P14" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="45"/>
+      <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
@@ -1783,7 +2216,7 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -1846,7 +2279,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="19" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +2339,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="19" t="s">
         <v>14</v>
       </c>
@@ -1966,7 +2399,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="19" t="s">
         <v>8</v>
       </c>
@@ -2026,7 +2459,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="51"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="30" t="s">
         <v>15</v>
       </c>
@@ -2113,49 +2546,49 @@
     <mergeCell ref="L4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="top10" dxfId="29" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 K7 O7">
-    <cfRule type="top10" dxfId="28" priority="15" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="15" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 K8 O8">
-    <cfRule type="top10" dxfId="27" priority="13" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="13" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 K9 O9">
-    <cfRule type="top10" dxfId="26" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="12" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="top10" dxfId="25" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16 K16 O16">
-    <cfRule type="top10" dxfId="24" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17 K17 O17">
-    <cfRule type="top10" dxfId="23" priority="9" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 K18 O18">
-    <cfRule type="top10" dxfId="22" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 K19 O19">
-    <cfRule type="top10" dxfId="21" priority="7" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 K20 O20">
-    <cfRule type="top10" dxfId="20" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16 M16 Q16">
-    <cfRule type="top10" dxfId="19" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17 M17 Q17">
-    <cfRule type="top10" dxfId="18" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 M18 Q18">
-    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19 M19 Q19">
-    <cfRule type="top10" dxfId="16" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20 M20 Q20">
-    <cfRule type="top10" dxfId="15" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2180,18 +2613,18 @@
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="24"/>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="45"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
@@ -2233,21 +2666,21 @@
       <c r="O3" s="4">
         <v>10</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="44" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="45"/>
+      <c r="S3" s="47"/>
       <c r="T3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -2315,7 +2748,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="50"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -2381,7 +2814,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -2447,7 +2880,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -2513,7 +2946,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -2579,7 +3012,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -2601,7 +3034,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -2622,7 +3055,7 @@
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="52"/>
       <c r="E11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
@@ -2631,7 +3064,7 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
       <c r="E12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
@@ -2640,7 +3073,7 @@
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
       <c r="E13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
@@ -2677,18 +3110,18 @@
     </row>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="45"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
@@ -2731,20 +3164,20 @@
       <c r="O17" s="2">
         <v>10</v>
       </c>
-      <c r="P17" s="44" t="s">
+      <c r="P17" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="44" t="s">
+      <c r="Q17" s="47"/>
+      <c r="R17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="45"/>
+      <c r="S17" s="47"/>
       <c r="T17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="11" t="str">
@@ -2811,7 +3244,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -2876,7 +3309,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -2941,7 +3374,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -3006,7 +3439,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -3071,7 +3504,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="11"/>
       <c r="D23" s="21"/>
       <c r="E23" s="17"/>
@@ -3092,7 +3525,7 @@
       <c r="T23" s="21"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -3113,7 +3546,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -3134,7 +3567,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -3155,7 +3588,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -3227,18 +3660,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="45"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
@@ -3281,21 +3714,21 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="44" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="45"/>
+      <c r="S3" s="47"/>
       <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -3363,7 +3796,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="50"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -3429,7 +3862,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -3495,7 +3928,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -3561,7 +3994,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -3627,7 +4060,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -3649,7 +4082,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -3671,7 +4104,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="11"/>
       <c r="D11" s="21"/>
       <c r="E11" s="17"/>
@@ -3683,7 +4116,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="11"/>
       <c r="D12" s="21"/>
       <c r="E12" s="17"/>
@@ -3695,7 +4128,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="11"/>
       <c r="D13" s="21"/>
       <c r="E13" s="17"/>
@@ -3707,7 +4140,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="11"/>
       <c r="D14" s="21"/>
       <c r="E14" s="17"/>
@@ -3730,18 +4163,18 @@
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="45"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -3784,20 +4217,20 @@
       <c r="O18" s="2">
         <v>10</v>
       </c>
-      <c r="P18" s="44" t="s">
+      <c r="P18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="44" t="s">
+      <c r="Q18" s="47"/>
+      <c r="R18" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="45"/>
+      <c r="S18" s="47"/>
       <c r="T18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="str">
@@ -3864,7 +4297,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -3929,7 +4362,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -3994,7 +4427,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -4059,7 +4492,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -4124,7 +4557,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -4145,7 +4578,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -4166,7 +4599,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -4187,7 +4620,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -4208,7 +4641,7 @@
       <c r="T27" s="21"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="17"/>
@@ -4275,18 +4708,18 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="45"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
@@ -4329,20 +4762,20 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="44" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="45"/>
+      <c r="S3" s="47"/>
       <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="str">
@@ -4409,7 +4842,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -4474,7 +4907,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -4539,7 +4972,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -4604,7 +5037,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -4669,7 +5102,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="11"/>
       <c r="D9" s="21"/>
       <c r="E9" s="17"/>
@@ -4690,7 +5123,7 @@
       <c r="T9" s="21"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="11"/>
       <c r="D10" s="21"/>
       <c r="E10" s="17"/>
@@ -4701,7 +5134,7 @@
       <c r="T10" s="21"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="11"/>
       <c r="D11" s="21"/>
       <c r="E11" s="17"/>
@@ -4712,7 +5145,7 @@
       <c r="T11" s="21"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="11"/>
       <c r="D12" s="21"/>
       <c r="E12" s="17"/>
@@ -4723,7 +5156,7 @@
       <c r="T12" s="21"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="11"/>
       <c r="D13" s="21"/>
       <c r="E13" s="17"/>
@@ -4744,7 +5177,7 @@
       <c r="T13" s="21"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="11"/>
       <c r="D14" s="21"/>
       <c r="E14" s="17"/>
@@ -4767,18 +5200,18 @@
     <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="45"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -4821,20 +5254,20 @@
       <c r="O18" s="2">
         <v>10</v>
       </c>
-      <c r="P18" s="44" t="s">
+      <c r="P18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="44" t="s">
+      <c r="Q18" s="47"/>
+      <c r="R18" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="45"/>
+      <c r="S18" s="47"/>
       <c r="T18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="51" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="11" t="str">
@@ -4901,7 +5334,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="11" t="str">
         <f>Comparison!C7</f>
         <v>F1_g-6</v>
@@ -4966,7 +5399,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="11" t="str">
         <f>Comparison!C8</f>
         <v>Beijing-3</v>
@@ -5031,7 +5464,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="11" t="str">
         <f>Comparison!C9</f>
         <v>Hefei-10</v>
@@ -5096,7 +5529,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="11" t="str">
         <f>Comparison!C10</f>
         <v>Beijing-5</v>
@@ -5161,7 +5594,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="11"/>
       <c r="D24" s="21"/>
       <c r="E24" s="17"/>
@@ -5182,7 +5615,7 @@
       <c r="T24" s="21"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="11"/>
       <c r="D25" s="21"/>
       <c r="E25" s="17"/>
@@ -5203,7 +5636,7 @@
       <c r="T25" s="21"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="11"/>
       <c r="D26" s="21"/>
       <c r="E26" s="17"/>
@@ -5224,7 +5657,7 @@
       <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="11"/>
       <c r="D27" s="21"/>
       <c r="E27" s="17"/>
@@ -5245,7 +5678,7 @@
       <c r="T27" s="21"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="11"/>
       <c r="D28" s="21"/>
       <c r="E28" s="17"/>
@@ -5305,7 +5738,7 @@
   <dimension ref="B2:T45"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5316,52 +5749,52 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="53">
+      <c r="F3" s="55">
         <f>B18</f>
         <v>0</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="53">
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="55">
         <f>B27</f>
         <v>0.5</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="53">
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="55">
         <v>1</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="44" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="44" t="s">
+      <c r="M4" s="47"/>
+      <c r="N4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44" t="s">
+      <c r="O4" s="47"/>
+      <c r="P4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -5411,7 +5844,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -5473,7 +5906,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -5533,7 +5966,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
@@ -5593,7 +6026,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
@@ -5653,7 +6086,7 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="51"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
@@ -5786,18 +6219,18 @@
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="45"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
@@ -5840,20 +6273,20 @@
       <c r="O17" s="2">
         <v>10</v>
       </c>
-      <c r="P17" s="44" t="s">
+      <c r="P17" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="44" t="s">
+      <c r="Q17" s="47"/>
+      <c r="R17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="45"/>
+      <c r="S17" s="47"/>
       <c r="T17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="54">
+      <c r="B18" s="56">
         <v>0</v>
       </c>
       <c r="C18" s="18" t="str">
@@ -5920,7 +6353,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="19" t="str">
         <f t="shared" ref="C19:E19" si="11">C7</f>
         <v>F1_g-6</v>
@@ -5985,7 +6418,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="55"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="19" t="str">
         <f t="shared" ref="C20:E20" si="17">C8</f>
         <v>Beijing-3</v>
@@ -6050,7 +6483,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="19" t="str">
         <f t="shared" ref="C21:E21" si="18">C9</f>
         <v>Hefei-10</v>
@@ -6115,7 +6548,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="30" t="str">
         <f t="shared" ref="C22:E22" si="19">C10</f>
         <v>Beijing-5</v>
@@ -6183,18 +6616,18 @@
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="45"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="47"/>
     </row>
     <row r="26" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
@@ -6237,20 +6670,20 @@
       <c r="O26" s="2">
         <v>10</v>
       </c>
-      <c r="P26" s="44" t="s">
+      <c r="P26" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="44" t="s">
+      <c r="Q26" s="47"/>
+      <c r="R26" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S26" s="45"/>
+      <c r="S26" s="47"/>
       <c r="T26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="54">
+      <c r="B27" s="56">
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="str">
@@ -6317,7 +6750,7 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="19" t="str">
         <f t="shared" ref="C28:E28" si="21">C7</f>
         <v>F1_g-6</v>
@@ -6382,7 +6815,7 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="19" t="str">
         <f t="shared" ref="C29:E29" si="27">C8</f>
         <v>Beijing-3</v>
@@ -6447,7 +6880,7 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="19" t="str">
         <f t="shared" ref="C30:E30" si="28">C9</f>
         <v>Hefei-10</v>
@@ -6512,7 +6945,7 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="30" t="str">
         <f t="shared" ref="C31:E31" si="29">C10</f>
         <v>Beijing-5</v>
@@ -6874,19 +7307,19 @@
     <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="G9 K9 O9">
-    <cfRule type="top10" dxfId="14" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="top10" dxfId="13" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 K8 O8">
-    <cfRule type="top10" dxfId="12" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 K7 O7">
-    <cfRule type="top10" dxfId="11" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="top10" dxfId="10" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6896,60 +7329,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB94F69-007F-4C31-B54F-A9483762C616}">
   <dimension ref="B2:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="53">
+      <c r="F3" s="55">
         <f>B18</f>
         <v>0</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="53">
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="55">
         <f>B27</f>
         <v>0.5</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="53">
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="55">
         <v>0.25</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="44" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="44" t="s">
+      <c r="M4" s="47"/>
+      <c r="N4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44" t="s">
+      <c r="O4" s="47"/>
+      <c r="P4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="45"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -6999,7 +7432,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -7061,7 +7494,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
@@ -7121,7 +7554,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
@@ -7181,7 +7614,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
@@ -7241,7 +7674,7 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="51"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
@@ -7374,18 +7807,18 @@
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="45"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
@@ -7428,20 +7861,20 @@
       <c r="O17" s="2">
         <v>10</v>
       </c>
-      <c r="P17" s="44" t="s">
+      <c r="P17" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="44" t="s">
+      <c r="Q17" s="47"/>
+      <c r="R17" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="45"/>
+      <c r="S17" s="47"/>
       <c r="T17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="54">
+      <c r="B18" s="56">
         <v>0</v>
       </c>
       <c r="C18" s="18" t="str">
@@ -7508,7 +7941,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="19" t="str">
         <f t="shared" ref="C19:E22" si="5">C7</f>
         <v>F1_g-6</v>
@@ -7573,7 +8006,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="55"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="19" t="str">
         <f t="shared" si="5"/>
         <v>Beijing-3</v>
@@ -7638,7 +8071,7 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="19" t="str">
         <f t="shared" si="5"/>
         <v>Hefei-10</v>
@@ -7703,7 +8136,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="30" t="str">
         <f t="shared" si="5"/>
         <v>Beijing-5</v>
@@ -7771,18 +8204,18 @@
     <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="45"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="47"/>
     </row>
     <row r="26" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
@@ -7825,20 +8258,20 @@
       <c r="O26" s="2">
         <v>10</v>
       </c>
-      <c r="P26" s="44" t="s">
+      <c r="P26" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="44" t="s">
+      <c r="Q26" s="47"/>
+      <c r="R26" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="S26" s="45"/>
+      <c r="S26" s="47"/>
       <c r="T26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="54">
+      <c r="B27" s="56">
         <v>0.5</v>
       </c>
       <c r="C27" s="18" t="str">
@@ -7905,7 +8338,7 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="19" t="str">
         <f t="shared" ref="C28:E31" si="12">C7</f>
         <v>F1_g-6</v>
@@ -7970,7 +8403,7 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="19" t="str">
         <f t="shared" si="12"/>
         <v>Beijing-3</v>
@@ -8035,7 +8468,7 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="19" t="str">
         <f t="shared" si="12"/>
         <v>Hefei-10</v>
@@ -8098,7 +8531,7 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="30" t="str">
         <f t="shared" si="12"/>
         <v>Beijing-5</v>
@@ -8578,19 +9011,19 @@
     <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <conditionalFormatting sqref="G9 K9 O9">
-    <cfRule type="top10" dxfId="9" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 K10 O10">
-    <cfRule type="top10" dxfId="8" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 K8 O8">
-    <cfRule type="top10" dxfId="7" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 K7 O7">
-    <cfRule type="top10" dxfId="6" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6 K6 O6">
-    <cfRule type="top10" dxfId="5" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8598,72 +9031,5263 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E7D71B-F90D-4553-8E3F-F9F38F3C3226}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AC69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="11"/>
+      <c r="F3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="71"/>
+      <c r="H3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="71"/>
+      <c r="L3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="71"/>
+      <c r="P3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="71"/>
+      <c r="T3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="69"/>
+      <c r="V3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" s="71"/>
+      <c r="X3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC3" s="69"/>
+    </row>
+    <row r="4" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="74">
+        <f>B20</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="72">
+        <f>B22</f>
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74">
+        <f>B29</f>
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76">
+        <f>B31</f>
+        <v>0.05</v>
+      </c>
+      <c r="M4" s="77"/>
+      <c r="N4" s="74">
+        <f>B38</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="72">
+        <f>B40</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74">
+        <f>B47</f>
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="75"/>
+      <c r="T4" s="72">
+        <f>B49</f>
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74">
+        <f>B56</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W4" s="75"/>
+      <c r="X4" s="72">
+        <f>B58</f>
+        <v>0.15</v>
+      </c>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74">
+        <f>B65</f>
+        <v>0.05</v>
+      </c>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="72">
+        <f>B67</f>
+        <v>0.15</v>
+      </c>
+      <c r="AC4" s="73"/>
+    </row>
+    <row r="5" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="47"/>
+      <c r="N5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="47"/>
+      <c r="P5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="47"/>
+      <c r="T5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="47"/>
+      <c r="V5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="47"/>
+      <c r="X5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="47"/>
+    </row>
+    <row r="6" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10">
+        <v>375</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1602229</v>
+      </c>
+      <c r="F7" s="23">
+        <f>P19</f>
+        <v>1612697</v>
+      </c>
+      <c r="G7" s="14">
+        <f>Q19</f>
+        <v>6.5333981596886748E-3</v>
+      </c>
+      <c r="H7" s="23">
+        <f>R19</f>
+        <v>1620059.4</v>
+      </c>
+      <c r="I7" s="12">
+        <f>S19</f>
+        <v>1.1128496613155736E-2</v>
+      </c>
+      <c r="J7" s="23">
+        <f>P28</f>
+        <v>1618302</v>
+      </c>
+      <c r="K7" s="14">
+        <f>Q28</f>
+        <v>1.003164965807013E-2</v>
+      </c>
+      <c r="L7" s="23">
+        <f>R28</f>
+        <v>1621613.6</v>
+      </c>
+      <c r="M7" s="12">
+        <f>S28</f>
+        <v>1.2098520248978284E-2</v>
+      </c>
+      <c r="N7" s="23">
+        <f>P37</f>
+        <v>1612395</v>
+      </c>
+      <c r="O7" s="14">
+        <f>Q37</f>
+        <v>6.3449107462165699E-3</v>
+      </c>
+      <c r="P7" s="23">
+        <f>R37</f>
+        <v>1618339.8</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>S37</f>
+        <v>1.005524179127959E-2</v>
+      </c>
+      <c r="R7" s="23">
+        <f>P46</f>
+        <v>1613052</v>
+      </c>
+      <c r="S7" s="14">
+        <f>Q46</f>
+        <v>6.754964490094828E-3</v>
+      </c>
+      <c r="T7" s="23">
+        <f>R46</f>
+        <v>1618259.2</v>
+      </c>
+      <c r="U7" s="12">
+        <f>S46</f>
+        <v>1.0004936872319625E-2</v>
+      </c>
+      <c r="V7" s="23">
+        <f>P55</f>
+        <v>1612033</v>
+      </c>
+      <c r="W7" s="14">
+        <f t="shared" ref="W7:Y7" si="0">Q55</f>
+        <v>6.1189755022534875E-3</v>
+      </c>
+      <c r="X7" s="23">
+        <f t="shared" si="0"/>
+        <v>1619983.2</v>
+      </c>
+      <c r="Y7" s="12">
+        <f t="shared" si="0"/>
+        <v>1.1080937868432006E-2</v>
+      </c>
+      <c r="Z7" s="23">
+        <f>P64</f>
+        <v>1615697</v>
+      </c>
+      <c r="AA7" s="14">
+        <f t="shared" ref="AA7:AC7" si="1">Q64</f>
+        <v>8.4057896842462121E-3</v>
+      </c>
+      <c r="AB7" s="23">
+        <f t="shared" si="1"/>
+        <v>1620575.8</v>
+      </c>
+      <c r="AC7" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1450797607583052E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B8" s="52"/>
+      <c r="C8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11">
+        <v>780</v>
+      </c>
+      <c r="E8" s="17">
+        <v>474809</v>
+      </c>
+      <c r="F8" s="22">
+        <f>P20</f>
+        <v>440272</v>
+      </c>
+      <c r="G8" s="15">
+        <f>Q20</f>
+        <v>-7.2738722307285619E-2</v>
+      </c>
+      <c r="H8" s="22">
+        <f>R20</f>
+        <v>441282.6</v>
+      </c>
+      <c r="I8" s="13">
+        <f>S20</f>
+        <v>-7.0610287505081026E-2</v>
+      </c>
+      <c r="J8" s="22">
+        <f>P29</f>
+        <v>439580</v>
+      </c>
+      <c r="K8" s="15">
+        <f>Q29</f>
+        <v>-7.4196150452076504E-2</v>
+      </c>
+      <c r="L8" s="22">
+        <f>R29</f>
+        <v>441211.2</v>
+      </c>
+      <c r="M8" s="13">
+        <f>S29</f>
+        <v>-7.076066376163892E-2</v>
+      </c>
+      <c r="N8" s="22">
+        <f>P38</f>
+        <v>439989</v>
+      </c>
+      <c r="O8" s="15">
+        <f>Q38</f>
+        <v>-7.3334751447424074E-2</v>
+      </c>
+      <c r="P8" s="22">
+        <f>R38</f>
+        <v>440893.2</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>S38</f>
+        <v>-7.1430406753031139E-2</v>
+      </c>
+      <c r="R8" s="22">
+        <f>P47</f>
+        <v>438761</v>
+      </c>
+      <c r="S8" s="15">
+        <f>Q47</f>
+        <v>-7.5921054571417179E-2</v>
+      </c>
+      <c r="T8" s="22">
+        <f>R47</f>
+        <v>441163.2</v>
+      </c>
+      <c r="U8" s="13">
+        <f>S47</f>
+        <v>-7.0861757043358509E-2</v>
+      </c>
+      <c r="V8" s="22">
+        <f t="shared" ref="V8:V11" si="2">P56</f>
+        <v>440115</v>
+      </c>
+      <c r="W8" s="15">
+        <f t="shared" ref="W8:W11" si="3">Q56</f>
+        <v>-7.3069381582910209E-2</v>
+      </c>
+      <c r="X8" s="22">
+        <f t="shared" ref="X8:X11" si="4">R56</f>
+        <v>441438.8</v>
+      </c>
+      <c r="Y8" s="13">
+        <f t="shared" ref="Y8:Y11" si="5">S56</f>
+        <v>-7.02813131174852E-2</v>
+      </c>
+      <c r="Z8" s="22">
+        <f t="shared" ref="Z8:Z11" si="6">P65</f>
+        <v>439252</v>
+      </c>
+      <c r="AA8" s="15">
+        <f t="shared" ref="AA8:AA11" si="7">Q65</f>
+        <v>-7.48869545438271E-2</v>
+      </c>
+      <c r="AB8" s="22">
+        <f t="shared" ref="AB8:AB11" si="8">R65</f>
+        <v>441780.6</v>
+      </c>
+      <c r="AC8" s="13">
+        <f t="shared" ref="AC8:AC11" si="9">S65</f>
+        <v>-6.9561444707240239E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
+      <c r="C9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1075</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1534878</v>
+      </c>
+      <c r="F9" s="22">
+        <f>P21</f>
+        <v>1542748</v>
+      </c>
+      <c r="G9" s="15">
+        <f>Q21</f>
+        <v>5.1274433538039954E-3</v>
+      </c>
+      <c r="H9" s="22">
+        <f>R21</f>
+        <v>1546969</v>
+      </c>
+      <c r="I9" s="13">
+        <f>S21</f>
+        <v>7.8774990585570581E-3</v>
+      </c>
+      <c r="J9" s="22">
+        <f>P30</f>
+        <v>1540570</v>
+      </c>
+      <c r="K9" s="15">
+        <f>Q30</f>
+        <v>3.7084380647842696E-3</v>
+      </c>
+      <c r="L9" s="22">
+        <f>R30</f>
+        <v>1544630</v>
+      </c>
+      <c r="M9" s="13">
+        <f>S30</f>
+        <v>6.353599439173685E-3</v>
+      </c>
+      <c r="N9" s="22">
+        <f>P39</f>
+        <v>1542674</v>
+      </c>
+      <c r="O9" s="15">
+        <f>Q39</f>
+        <v>5.0792310528915419E-3</v>
+      </c>
+      <c r="P9" s="22">
+        <f>R39</f>
+        <v>1547808.6</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>S39</f>
+        <v>8.4245132186402394E-3</v>
+      </c>
+      <c r="R9" s="22">
+        <f>P48</f>
+        <v>1540194</v>
+      </c>
+      <c r="S9" s="15">
+        <f>Q48</f>
+        <v>3.4634674547422417E-3</v>
+      </c>
+      <c r="T9" s="22">
+        <f>R48</f>
+        <v>1542807.2</v>
+      </c>
+      <c r="U9" s="13">
+        <f>S48</f>
+        <v>5.1660131945339138E-3</v>
+      </c>
+      <c r="V9" s="22">
+        <f t="shared" si="2"/>
+        <v>1537464</v>
+      </c>
+      <c r="W9" s="15">
+        <f t="shared" si="3"/>
+        <v>1.6848244616185504E-3</v>
+      </c>
+      <c r="X9" s="22">
+        <f t="shared" si="4"/>
+        <v>1541511.6</v>
+      </c>
+      <c r="Y9" s="13">
+        <f t="shared" si="5"/>
+        <v>4.321907018017157E-3</v>
+      </c>
+      <c r="Z9" s="22">
+        <f t="shared" si="6"/>
+        <v>1543619</v>
+      </c>
+      <c r="AA9" s="15">
+        <f t="shared" si="7"/>
+        <v>5.6949151658958197E-3</v>
+      </c>
+      <c r="AB9" s="22">
+        <f t="shared" si="8"/>
+        <v>1546493.2</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="9"/>
+        <v>7.5675069940412953E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10" s="52"/>
+      <c r="C10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1748829</v>
+      </c>
+      <c r="F10" s="22">
+        <f>P22</f>
+        <v>1751386</v>
+      </c>
+      <c r="G10" s="15">
+        <f>Q22</f>
+        <v>1.462121225116908E-3</v>
+      </c>
+      <c r="H10" s="22">
+        <f>R22</f>
+        <v>1757892.2</v>
+      </c>
+      <c r="I10" s="13">
+        <f>S22</f>
+        <v>5.1824392207584502E-3</v>
+      </c>
+      <c r="J10" s="22">
+        <f>P31</f>
+        <v>1753659</v>
+      </c>
+      <c r="K10" s="15">
+        <f>Q31</f>
+        <v>2.7618480709090676E-3</v>
+      </c>
+      <c r="L10" s="22">
+        <f>R31</f>
+        <v>1757631.4</v>
+      </c>
+      <c r="M10" s="13">
+        <f>S31</f>
+        <v>5.0333108611533284E-3</v>
+      </c>
+      <c r="N10" s="22">
+        <f>P40</f>
+        <v>1748589</v>
+      </c>
+      <c r="O10" s="15">
+        <f>Q40</f>
+        <v>-1.3723468675319594E-4</v>
+      </c>
+      <c r="P10" s="22">
+        <f>R40</f>
+        <v>1756465.2</v>
+      </c>
+      <c r="Q10" s="13">
+        <f>S40</f>
+        <v>4.3664646457715062E-3</v>
+      </c>
+      <c r="R10" s="22">
+        <f>P49</f>
+        <v>1750556</v>
+      </c>
+      <c r="S10" s="15">
+        <f>Q49</f>
+        <v>9.8751793342866101E-4</v>
+      </c>
+      <c r="T10" s="22">
+        <f>R49</f>
+        <v>1756705.4</v>
+      </c>
+      <c r="U10" s="13">
+        <f>S49</f>
+        <v>4.5038136947637142E-3</v>
+      </c>
+      <c r="V10" s="22">
+        <f t="shared" si="2"/>
+        <v>1757651</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" si="3"/>
+        <v>5.0445183605716259E-3</v>
+      </c>
+      <c r="X10" s="22">
+        <f t="shared" si="4"/>
+        <v>1762541.4</v>
+      </c>
+      <c r="Y10" s="13">
+        <f t="shared" si="5"/>
+        <v>7.8409038276467946E-3</v>
+      </c>
+      <c r="Z10" s="22">
+        <f t="shared" si="6"/>
+        <v>1759893</v>
+      </c>
+      <c r="AA10" s="15">
+        <f t="shared" si="7"/>
+        <v>6.3265190593249088E-3</v>
+      </c>
+      <c r="AB10" s="22">
+        <f t="shared" si="8"/>
+        <v>1764890.2</v>
+      </c>
+      <c r="AC10" s="13">
+        <f t="shared" si="9"/>
+        <v>9.1839739620054317E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="53"/>
+      <c r="C11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1792</v>
+      </c>
+      <c r="E11" s="31">
+        <v>2199275</v>
+      </c>
+      <c r="F11" s="32">
+        <f>P23</f>
+        <v>2213898</v>
+      </c>
+      <c r="G11" s="33">
+        <f>Q23</f>
+        <v>6.6490093326210253E-3</v>
+      </c>
+      <c r="H11" s="32">
+        <f>R23</f>
+        <v>2217452.2000000002</v>
+      </c>
+      <c r="I11" s="34">
+        <f>S23</f>
+        <v>8.2650873583340889E-3</v>
+      </c>
+      <c r="J11" s="32">
+        <f>P32</f>
+        <v>2205735</v>
+      </c>
+      <c r="K11" s="33">
+        <f>Q32</f>
+        <v>2.9373316206477984E-3</v>
+      </c>
+      <c r="L11" s="32">
+        <f>R32</f>
+        <v>2218763.7999999998</v>
+      </c>
+      <c r="M11" s="34">
+        <f>S32</f>
+        <v>8.8614657102907834E-3</v>
+      </c>
+      <c r="N11" s="32">
+        <f>P41</f>
+        <v>2222833</v>
+      </c>
+      <c r="O11" s="33">
+        <f>Q41</f>
+        <v>1.0711711814120672E-2</v>
+      </c>
+      <c r="P11" s="32">
+        <f>R41</f>
+        <v>2223695.7999999998</v>
+      </c>
+      <c r="Q11" s="34">
+        <f>S41</f>
+        <v>1.1104022916642808E-2</v>
+      </c>
+      <c r="R11" s="32">
+        <f>P50</f>
+        <v>2212813</v>
+      </c>
+      <c r="S11" s="33">
+        <f>Q50</f>
+        <v>6.1556649350353876E-3</v>
+      </c>
+      <c r="T11" s="32">
+        <f>R50</f>
+        <v>2218749</v>
+      </c>
+      <c r="U11" s="34">
+        <f>S50</f>
+        <v>8.8547362198907464E-3</v>
+      </c>
+      <c r="V11" s="32">
+        <f t="shared" si="2"/>
+        <v>2211630</v>
+      </c>
+      <c r="W11" s="33">
+        <f t="shared" si="3"/>
+        <v>5.6177603983131874E-3</v>
+      </c>
+      <c r="X11" s="32">
+        <f t="shared" si="4"/>
+        <v>2219766</v>
+      </c>
+      <c r="Y11" s="34">
+        <f t="shared" si="5"/>
+        <v>9.3171613372589057E-3</v>
+      </c>
+      <c r="Z11" s="32">
+        <f t="shared" si="6"/>
+        <v>2207600</v>
+      </c>
+      <c r="AA11" s="33">
+        <f t="shared" si="7"/>
+        <v>3.7853383501380566E-3</v>
+      </c>
+      <c r="AB11" s="32">
+        <f t="shared" si="8"/>
+        <v>2213233</v>
+      </c>
+      <c r="AC11" s="34">
+        <f t="shared" si="9"/>
+        <v>6.3466369599072259E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="29"/>
+    </row>
+    <row r="16" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="26"/>
+      <c r="F17" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="47"/>
+    </row>
+    <row r="18" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>6</v>
+      </c>
+      <c r="L18" s="4">
+        <v>7</v>
+      </c>
+      <c r="M18" s="4">
+        <v>8</v>
+      </c>
+      <c r="N18" s="4">
+        <v>9</v>
+      </c>
+      <c r="O18" s="2">
+        <v>10</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="47"/>
+      <c r="T18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>C7</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" ref="D19:E19" si="10">D7</f>
+        <v>375</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="10"/>
+        <v>1602229</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1622211</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1612697</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1623896</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1618543</v>
+      </c>
+      <c r="J19" s="23">
+        <v>1622950</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="5">
+        <f>MIN(F19:O19)</f>
+        <v>1612697</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>P19/E19-1</f>
+        <v>6.5333981596886748E-3</v>
+      </c>
+      <c r="R19" s="5">
+        <f>AVERAGE(F19:O19)</f>
+        <v>1620059.4</v>
+      </c>
+      <c r="S19" s="13">
+        <f>R19/E19-1</f>
+        <v>1.1128496613155736E-2</v>
+      </c>
+      <c r="T19" s="21">
+        <f>_xlfn.STDEV.P(F19:O19)</f>
+        <v>4103.8726393493253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="65">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C20" s="19" t="str">
+        <f t="shared" ref="C20:E23" si="11">C8</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="11"/>
+        <v>780</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="11"/>
+        <v>474809</v>
+      </c>
+      <c r="F20" s="5">
+        <v>440272</v>
+      </c>
+      <c r="G20" s="5">
+        <v>441467</v>
+      </c>
+      <c r="H20" s="5">
+        <v>442835</v>
+      </c>
+      <c r="I20" s="5">
+        <v>440643</v>
+      </c>
+      <c r="J20" s="22">
+        <v>441196</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="5">
+        <f>MIN(F20:O20)</f>
+        <v>440272</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" ref="Q20:Q23" si="12">P20/E20-1</f>
+        <v>-7.2738722307285619E-2</v>
+      </c>
+      <c r="R20" s="5">
+        <f>AVERAGE(F20:O20)</f>
+        <v>441282.6</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" ref="S20:S23" si="13">R20/E20-1</f>
+        <v>-7.0610287505081026E-2</v>
+      </c>
+      <c r="T20" s="21">
+        <f>_xlfn.STDEV.P(F20:O20)</f>
+        <v>881.11851643238106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="65"/>
+      <c r="C21" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="11"/>
+        <v>1075</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="11"/>
+        <v>1534878</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1548757</v>
+      </c>
+      <c r="G21" s="22">
+        <v>1548059</v>
+      </c>
+      <c r="H21" s="22">
+        <v>1551552</v>
+      </c>
+      <c r="I21" s="22">
+        <v>1543729</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1542748</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="5">
+        <f>MIN(F21:O21)</f>
+        <v>1542748</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="12"/>
+        <v>5.1274433538039954E-3</v>
+      </c>
+      <c r="R21" s="5">
+        <f>AVERAGE(F21:O21)</f>
+        <v>1546969</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="13"/>
+        <v>7.8774990585570581E-3</v>
+      </c>
+      <c r="T21" s="21">
+        <f>_xlfn.STDEV.P(F21:O21)</f>
+        <v>3277.2968739496273</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="11"/>
+        <v>1212</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="11"/>
+        <v>1748829</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1751386</v>
+      </c>
+      <c r="G22" s="22">
+        <v>1759499</v>
+      </c>
+      <c r="H22" s="22">
+        <v>1759527</v>
+      </c>
+      <c r="I22" s="22">
+        <v>1763980</v>
+      </c>
+      <c r="J22" s="22">
+        <v>1755069</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="5">
+        <f>MIN(F22:O22)</f>
+        <v>1751386</v>
+      </c>
+      <c r="Q22" s="13">
+        <f t="shared" si="12"/>
+        <v>1.462121225116908E-3</v>
+      </c>
+      <c r="R22" s="5">
+        <f>AVERAGE(F22:O22)</f>
+        <v>1757892.2</v>
+      </c>
+      <c r="S22" s="13">
+        <f t="shared" si="13"/>
+        <v>5.1824392207584502E-3</v>
+      </c>
+      <c r="T22" s="21">
+        <f>_xlfn.STDEV.P(F22:O22)</f>
+        <v>4303.8769220320419</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="67"/>
+      <c r="C23" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D23" s="24">
+        <f t="shared" si="11"/>
+        <v>1792</v>
+      </c>
+      <c r="E23" s="31">
+        <f t="shared" si="11"/>
+        <v>2199275</v>
+      </c>
+      <c r="F23" s="32">
+        <v>2215110</v>
+      </c>
+      <c r="G23" s="32">
+        <v>2220639</v>
+      </c>
+      <c r="H23" s="32">
+        <v>2213898</v>
+      </c>
+      <c r="I23" s="32">
+        <v>2218637</v>
+      </c>
+      <c r="J23" s="32">
+        <v>2218977</v>
+      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32">
+        <f>MIN(F23:O23)</f>
+        <v>2213898</v>
+      </c>
+      <c r="Q23" s="34">
+        <f t="shared" si="12"/>
+        <v>6.6490093326210253E-3</v>
+      </c>
+      <c r="R23" s="32">
+        <f>AVERAGE(F23:O23)</f>
+        <v>2217452.2000000002</v>
+      </c>
+      <c r="S23" s="34">
+        <f t="shared" si="13"/>
+        <v>8.2650873583340889E-3</v>
+      </c>
+      <c r="T23" s="43">
+        <f>_xlfn.STDEV.P(F23:O23)</f>
+        <v>2529.928805322395</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26"/>
+      <c r="F26" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="47"/>
+    </row>
+    <row r="27" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="11"/>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4">
+        <v>6</v>
+      </c>
+      <c r="L27" s="4">
+        <v>7</v>
+      </c>
+      <c r="M27" s="4">
+        <v>8</v>
+      </c>
+      <c r="N27" s="4">
+        <v>9</v>
+      </c>
+      <c r="O27" s="2">
+        <v>10</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="47"/>
+      <c r="T27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>C7</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28:E28" si="14">D7</f>
+        <v>375</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="14"/>
+        <v>1602229</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1620609</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1620245</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1624767</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1618302</v>
+      </c>
+      <c r="J28" s="23">
+        <v>1624145</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="5">
+        <f>MIN(F28:O28)</f>
+        <v>1618302</v>
+      </c>
+      <c r="Q28" s="13">
+        <f>P28/E28-1</f>
+        <v>1.003164965807013E-2</v>
+      </c>
+      <c r="R28" s="5">
+        <f>AVERAGE(F28:O28)</f>
+        <v>1621613.6</v>
+      </c>
+      <c r="S28" s="13">
+        <f>R28/E28-1</f>
+        <v>1.2098520248978284E-2</v>
+      </c>
+      <c r="T28" s="21">
+        <f>_xlfn.STDEV.P(F28:O28)</f>
+        <v>2457.6777331456619</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="C29" s="19" t="str">
+        <f t="shared" ref="C29:E32" si="15">C8</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="15"/>
+        <v>780</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="15"/>
+        <v>474809</v>
+      </c>
+      <c r="F29" s="5">
+        <v>442083</v>
+      </c>
+      <c r="G29" s="5">
+        <v>439786</v>
+      </c>
+      <c r="H29" s="5">
+        <v>443235</v>
+      </c>
+      <c r="I29" s="5">
+        <v>441372</v>
+      </c>
+      <c r="J29" s="22">
+        <v>439580</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="5">
+        <f>MIN(F29:O29)</f>
+        <v>439580</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" ref="Q29:Q32" si="16">P29/E29-1</f>
+        <v>-7.4196150452076504E-2</v>
+      </c>
+      <c r="R29" s="5">
+        <f>AVERAGE(F29:O29)</f>
+        <v>441211.2</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" ref="S29:S32" si="17">R29/E29-1</f>
+        <v>-7.076066376163892E-2</v>
+      </c>
+      <c r="T29" s="21">
+        <f>_xlfn.STDEV.P(F29:O29)</f>
+        <v>1383.7389060079217</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="65"/>
+      <c r="C30" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="15"/>
+        <v>1075</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="15"/>
+        <v>1534878</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1540570</v>
+      </c>
+      <c r="G30" s="22">
+        <v>1547930</v>
+      </c>
+      <c r="H30" s="22">
+        <v>1551653</v>
+      </c>
+      <c r="I30" s="22">
+        <v>1542071</v>
+      </c>
+      <c r="J30" s="22">
+        <v>1540926</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="5">
+        <f>MIN(F30:O30)</f>
+        <v>1540570</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="16"/>
+        <v>3.7084380647842696E-3</v>
+      </c>
+      <c r="R30" s="5">
+        <f>AVERAGE(F30:O30)</f>
+        <v>1544630</v>
+      </c>
+      <c r="S30" s="13">
+        <f t="shared" si="17"/>
+        <v>6.353599439173685E-3</v>
+      </c>
+      <c r="T30" s="21">
+        <f>_xlfn.STDEV.P(F30:O30)</f>
+        <v>4403.7308273780764</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="C31" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="15"/>
+        <v>1212</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="15"/>
+        <v>1748829</v>
+      </c>
+      <c r="F31" s="22">
+        <v>1758664</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1760238</v>
+      </c>
+      <c r="H31" s="22">
+        <v>1753659</v>
+      </c>
+      <c r="I31" s="22">
+        <v>1761790</v>
+      </c>
+      <c r="J31" s="22">
+        <v>1753806</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="5">
+        <f>MIN(F31:O31)</f>
+        <v>1753659</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="16"/>
+        <v>2.7618480709090676E-3</v>
+      </c>
+      <c r="R31" s="5">
+        <f>AVERAGE(F31:O31)</f>
+        <v>1757631.4</v>
+      </c>
+      <c r="S31" s="13">
+        <f t="shared" si="17"/>
+        <v>5.0333108611533284E-3</v>
+      </c>
+      <c r="T31" s="21">
+        <f>_xlfn.STDEV.P(F31:O31)</f>
+        <v>3333.7134609921113</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="67"/>
+      <c r="C32" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" si="15"/>
+        <v>1792</v>
+      </c>
+      <c r="E32" s="31">
+        <f t="shared" si="15"/>
+        <v>2199275</v>
+      </c>
+      <c r="F32" s="32">
+        <v>2205735</v>
+      </c>
+      <c r="G32" s="32">
+        <v>2223345</v>
+      </c>
+      <c r="H32" s="32">
+        <v>2224641</v>
+      </c>
+      <c r="I32" s="32">
+        <v>2224980</v>
+      </c>
+      <c r="J32" s="32">
+        <v>2215118</v>
+      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="32">
+        <f>MIN(F32:O32)</f>
+        <v>2205735</v>
+      </c>
+      <c r="Q32" s="34">
+        <f t="shared" si="16"/>
+        <v>2.9373316206477984E-3</v>
+      </c>
+      <c r="R32" s="32">
+        <f>AVERAGE(F32:O32)</f>
+        <v>2218763.7999999998</v>
+      </c>
+      <c r="S32" s="34">
+        <f t="shared" si="17"/>
+        <v>8.8614657102907834E-3</v>
+      </c>
+      <c r="T32" s="43">
+        <f>_xlfn.STDEV.P(F32:O32)</f>
+        <v>7445.958672998393</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="26"/>
+      <c r="F35" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="47"/>
+    </row>
+    <row r="36" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <v>4</v>
+      </c>
+      <c r="J36" s="4">
+        <v>5</v>
+      </c>
+      <c r="K36" s="4">
+        <v>6</v>
+      </c>
+      <c r="L36" s="4">
+        <v>7</v>
+      </c>
+      <c r="M36" s="4">
+        <v>8</v>
+      </c>
+      <c r="N36" s="4">
+        <v>9</v>
+      </c>
+      <c r="O36" s="2">
+        <v>10</v>
+      </c>
+      <c r="P36" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S36" s="47"/>
+      <c r="T36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="18" t="str">
+        <f>C7</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D37" s="10">
+        <f>D7</f>
+        <v>375</v>
+      </c>
+      <c r="E37" s="16">
+        <f>E7</f>
+        <v>1602229</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1616571</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1619055</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1621260</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1612395</v>
+      </c>
+      <c r="J37" s="23">
+        <v>1622418</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="5">
+        <f>MIN(F37:O37)</f>
+        <v>1612395</v>
+      </c>
+      <c r="Q37" s="13">
+        <f>P37/E37-1</f>
+        <v>6.3449107462165699E-3</v>
+      </c>
+      <c r="R37" s="5">
+        <f>AVERAGE(F37:O37)</f>
+        <v>1618339.8</v>
+      </c>
+      <c r="S37" s="13">
+        <f>R37/E37-1</f>
+        <v>1.005524179127959E-2</v>
+      </c>
+      <c r="T37" s="21">
+        <f>_xlfn.STDEV.P(F37:O37)</f>
+        <v>3581.6223921569399</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="65">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C38" s="19" t="str">
+        <f>C8</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D38" s="11">
+        <f>D8</f>
+        <v>780</v>
+      </c>
+      <c r="E38" s="17">
+        <f>E8</f>
+        <v>474809</v>
+      </c>
+      <c r="F38" s="5">
+        <v>442051</v>
+      </c>
+      <c r="G38" s="5">
+        <v>440452</v>
+      </c>
+      <c r="H38" s="5">
+        <v>441200</v>
+      </c>
+      <c r="I38" s="5">
+        <v>439989</v>
+      </c>
+      <c r="J38" s="22">
+        <v>440774</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="5">
+        <f>MIN(F38:O38)</f>
+        <v>439989</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" ref="Q38:Q41" si="18">P38/E38-1</f>
+        <v>-7.3334751447424074E-2</v>
+      </c>
+      <c r="R38" s="5">
+        <f>AVERAGE(F38:O38)</f>
+        <v>440893.2</v>
+      </c>
+      <c r="S38" s="13">
+        <f t="shared" ref="S38:S41" si="19">R38/E38-1</f>
+        <v>-7.1430406753031139E-2</v>
+      </c>
+      <c r="T38" s="21">
+        <f>_xlfn.STDEV.P(F38:O38)</f>
+        <v>701.57976025538255</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="65"/>
+      <c r="C39" s="19" t="str">
+        <f t="shared" ref="C39:E41" si="20">C9</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" si="20"/>
+        <v>1075</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="20"/>
+        <v>1534878</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1551653</v>
+      </c>
+      <c r="G39" s="22">
+        <v>1542674</v>
+      </c>
+      <c r="H39" s="22">
+        <v>1548476</v>
+      </c>
+      <c r="I39" s="22">
+        <v>1550199</v>
+      </c>
+      <c r="J39" s="22">
+        <v>1546041</v>
+      </c>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="5">
+        <f>MIN(F39:O39)</f>
+        <v>1542674</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="18"/>
+        <v>5.0792310528915419E-3</v>
+      </c>
+      <c r="R39" s="5">
+        <f>AVERAGE(F39:O39)</f>
+        <v>1547808.6</v>
+      </c>
+      <c r="S39" s="13">
+        <f t="shared" si="19"/>
+        <v>8.4245132186402394E-3</v>
+      </c>
+      <c r="T39" s="21">
+        <f>_xlfn.STDEV.P(F39:O39)</f>
+        <v>3175.763631002786</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" si="20"/>
+        <v>1212</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="20"/>
+        <v>1748829</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1757288</v>
+      </c>
+      <c r="G40" s="22">
+        <v>1751049</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1758240</v>
+      </c>
+      <c r="I40" s="22">
+        <v>1748589</v>
+      </c>
+      <c r="J40" s="22">
+        <v>1767160</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="5">
+        <f>MIN(F40:O40)</f>
+        <v>1748589</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="18"/>
+        <v>-1.3723468675319594E-4</v>
+      </c>
+      <c r="R40" s="5">
+        <f>AVERAGE(F40:O40)</f>
+        <v>1756465.2</v>
+      </c>
+      <c r="S40" s="13">
+        <f t="shared" si="19"/>
+        <v>4.3664646457715062E-3</v>
+      </c>
+      <c r="T40" s="21">
+        <f>_xlfn.STDEV.P(F40:O40)</f>
+        <v>6474.1858298939806</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="67"/>
+      <c r="C41" s="30" t="str">
+        <f t="shared" si="20"/>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D41" s="24">
+        <f t="shared" si="20"/>
+        <v>1792</v>
+      </c>
+      <c r="E41" s="31">
+        <f t="shared" si="20"/>
+        <v>2199275</v>
+      </c>
+      <c r="F41" s="32">
+        <v>2222833</v>
+      </c>
+      <c r="G41" s="32">
+        <v>2224602</v>
+      </c>
+      <c r="H41" s="32">
+        <v>2222947</v>
+      </c>
+      <c r="I41" s="32">
+        <v>2224390</v>
+      </c>
+      <c r="J41" s="32">
+        <v>2223707</v>
+      </c>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="32">
+        <f>MIN(F41:O41)</f>
+        <v>2222833</v>
+      </c>
+      <c r="Q41" s="34">
+        <f t="shared" si="18"/>
+        <v>1.0711711814120672E-2</v>
+      </c>
+      <c r="R41" s="32">
+        <f>AVERAGE(F41:O41)</f>
+        <v>2223695.7999999998</v>
+      </c>
+      <c r="S41" s="34">
+        <f t="shared" si="19"/>
+        <v>1.1104022916642808E-2</v>
+      </c>
+      <c r="T41" s="43">
+        <f>_xlfn.STDEV.P(F41:O41)</f>
+        <v>722.26903574776065</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="26"/>
+      <c r="F44" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="47"/>
+    </row>
+    <row r="45" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2</v>
+      </c>
+      <c r="H45" s="4">
+        <v>3</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4</v>
+      </c>
+      <c r="J45" s="4">
+        <v>5</v>
+      </c>
+      <c r="K45" s="4">
+        <v>6</v>
+      </c>
+      <c r="L45" s="4">
+        <v>7</v>
+      </c>
+      <c r="M45" s="4">
+        <v>8</v>
+      </c>
+      <c r="N45" s="4">
+        <v>9</v>
+      </c>
+      <c r="O45" s="2">
+        <v>10</v>
+      </c>
+      <c r="P45" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="47"/>
+      <c r="T45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="18" t="str">
+        <f>C7</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" ref="D46:E47" si="21">D7</f>
+        <v>375</v>
+      </c>
+      <c r="E46" s="16">
+        <f t="shared" si="21"/>
+        <v>1602229</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1621884</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1620055</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1613454</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1613052</v>
+      </c>
+      <c r="J46" s="23">
+        <v>1622851</v>
+      </c>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="5">
+        <f>MIN(F46:O46)</f>
+        <v>1613052</v>
+      </c>
+      <c r="Q46" s="13">
+        <f>P46/E46-1</f>
+        <v>6.754964490094828E-3</v>
+      </c>
+      <c r="R46" s="5">
+        <f>AVERAGE(F46:O46)</f>
+        <v>1618259.2</v>
+      </c>
+      <c r="S46" s="13">
+        <f>R46/E46-1</f>
+        <v>1.0004936872319625E-2</v>
+      </c>
+      <c r="T46" s="21">
+        <f>_xlfn.STDEV.P(F46:O46)</f>
+        <v>4186.9697586679558</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="C47" s="19" t="str">
+        <f>C8</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D47" s="11">
+        <f t="shared" si="21"/>
+        <v>780</v>
+      </c>
+      <c r="E47" s="17">
+        <f t="shared" si="21"/>
+        <v>474809</v>
+      </c>
+      <c r="F47" s="5">
+        <v>438761</v>
+      </c>
+      <c r="G47" s="5">
+        <v>441437</v>
+      </c>
+      <c r="H47" s="5">
+        <v>442587</v>
+      </c>
+      <c r="I47" s="5">
+        <v>440896</v>
+      </c>
+      <c r="J47" s="22">
+        <v>442135</v>
+      </c>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="5">
+        <f>MIN(F47:O47)</f>
+        <v>438761</v>
+      </c>
+      <c r="Q47" s="13">
+        <f t="shared" ref="Q47:Q50" si="22">P47/E47-1</f>
+        <v>-7.5921054571417179E-2</v>
+      </c>
+      <c r="R47" s="5">
+        <f>AVERAGE(F47:O47)</f>
+        <v>441163.2</v>
+      </c>
+      <c r="S47" s="13">
+        <f t="shared" ref="S47:S50" si="23">R47/E47-1</f>
+        <v>-7.0861757043358509E-2</v>
+      </c>
+      <c r="T47" s="21">
+        <f>_xlfn.STDEV.P(F47:O47)</f>
+        <v>1333.3063263931513</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="65"/>
+      <c r="C48" s="19" t="str">
+        <f t="shared" ref="C48:E50" si="24">C9</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D48" s="11">
+        <f t="shared" si="24"/>
+        <v>1075</v>
+      </c>
+      <c r="E48" s="17">
+        <f t="shared" si="24"/>
+        <v>1534878</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1546150</v>
+      </c>
+      <c r="G48" s="22">
+        <v>1544167</v>
+      </c>
+      <c r="H48" s="22">
+        <v>1540802</v>
+      </c>
+      <c r="I48" s="22">
+        <v>1540194</v>
+      </c>
+      <c r="J48" s="22">
+        <v>1542723</v>
+      </c>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="5">
+        <f>MIN(F48:O48)</f>
+        <v>1540194</v>
+      </c>
+      <c r="Q48" s="13">
+        <f t="shared" si="22"/>
+        <v>3.4634674547422417E-3</v>
+      </c>
+      <c r="R48" s="5">
+        <f>AVERAGE(F48:O48)</f>
+        <v>1542807.2</v>
+      </c>
+      <c r="S48" s="13">
+        <f t="shared" si="23"/>
+        <v>5.1660131945339138E-3</v>
+      </c>
+      <c r="T48" s="21">
+        <f>_xlfn.STDEV.P(F48:O48)</f>
+        <v>2185.4106616377617</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="C49" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D49" s="11">
+        <f t="shared" si="24"/>
+        <v>1212</v>
+      </c>
+      <c r="E49" s="17">
+        <f t="shared" si="24"/>
+        <v>1748829</v>
+      </c>
+      <c r="F49" s="22">
+        <v>1761215</v>
+      </c>
+      <c r="G49" s="22">
+        <v>1761875</v>
+      </c>
+      <c r="H49" s="22">
+        <v>1750556</v>
+      </c>
+      <c r="I49" s="22">
+        <v>1755399</v>
+      </c>
+      <c r="J49" s="22">
+        <v>1754482</v>
+      </c>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="5">
+        <f>MIN(F49:O49)</f>
+        <v>1750556</v>
+      </c>
+      <c r="Q49" s="13">
+        <f t="shared" si="22"/>
+        <v>9.8751793342866101E-4</v>
+      </c>
+      <c r="R49" s="5">
+        <f>AVERAGE(F49:O49)</f>
+        <v>1756705.4</v>
+      </c>
+      <c r="S49" s="13">
+        <f t="shared" si="23"/>
+        <v>4.5038136947637142E-3</v>
+      </c>
+      <c r="T49" s="21">
+        <f>_xlfn.STDEV.P(F49:O49)</f>
+        <v>4278.4708763762783</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="67"/>
+      <c r="C50" s="30" t="str">
+        <f t="shared" si="24"/>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D50" s="24">
+        <f t="shared" si="24"/>
+        <v>1792</v>
+      </c>
+      <c r="E50" s="31">
+        <f t="shared" si="24"/>
+        <v>2199275</v>
+      </c>
+      <c r="F50" s="32">
+        <v>2218040</v>
+      </c>
+      <c r="G50" s="32">
+        <v>2212813</v>
+      </c>
+      <c r="H50" s="32">
+        <v>2217445</v>
+      </c>
+      <c r="I50" s="32">
+        <v>2221640</v>
+      </c>
+      <c r="J50" s="32">
+        <v>2223807</v>
+      </c>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="32">
+        <f>MIN(F50:O50)</f>
+        <v>2212813</v>
+      </c>
+      <c r="Q50" s="34">
+        <f t="shared" si="22"/>
+        <v>6.1556649350353876E-3</v>
+      </c>
+      <c r="R50" s="32">
+        <f>AVERAGE(F50:O50)</f>
+        <v>2218749</v>
+      </c>
+      <c r="S50" s="34">
+        <f t="shared" si="23"/>
+        <v>8.8547362198907464E-3</v>
+      </c>
+      <c r="T50" s="43">
+        <f>_xlfn.STDEV.P(F50:O50)</f>
+        <v>3778.3710246612891</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="26"/>
+      <c r="F53" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="47"/>
+    </row>
+    <row r="54" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4">
+        <v>3</v>
+      </c>
+      <c r="I54" s="4">
+        <v>4</v>
+      </c>
+      <c r="J54" s="4">
+        <v>5</v>
+      </c>
+      <c r="K54" s="4">
+        <v>6</v>
+      </c>
+      <c r="L54" s="4">
+        <v>7</v>
+      </c>
+      <c r="M54" s="4">
+        <v>8</v>
+      </c>
+      <c r="N54" s="4">
+        <v>9</v>
+      </c>
+      <c r="O54" s="2">
+        <v>10</v>
+      </c>
+      <c r="P54" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="47"/>
+      <c r="T54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="18" t="str">
+        <f>C7</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D55" s="10">
+        <f t="shared" ref="D55:E56" si="25">D7</f>
+        <v>375</v>
+      </c>
+      <c r="E55" s="16">
+        <f t="shared" si="25"/>
+        <v>1602229</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1614551</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1625112</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1622284</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1612033</v>
+      </c>
+      <c r="J55" s="23">
+        <v>1625936</v>
+      </c>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="5">
+        <f>MIN(F55:O55)</f>
+        <v>1612033</v>
+      </c>
+      <c r="Q55" s="13">
+        <f>P55/E55-1</f>
+        <v>6.1189755022534875E-3</v>
+      </c>
+      <c r="R55" s="5">
+        <f>AVERAGE(F55:O55)</f>
+        <v>1619983.2</v>
+      </c>
+      <c r="S55" s="13">
+        <f>R55/E55-1</f>
+        <v>1.1080937868432006E-2</v>
+      </c>
+      <c r="T55" s="21">
+        <f>_xlfn.STDEV.P(F55:O55)</f>
+        <v>5652.4078904481057</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="65">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C56" s="19" t="str">
+        <f>C8</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D56" s="11">
+        <f t="shared" si="25"/>
+        <v>780</v>
+      </c>
+      <c r="E56" s="17">
+        <f t="shared" si="25"/>
+        <v>474809</v>
+      </c>
+      <c r="F56" s="5">
+        <v>442539</v>
+      </c>
+      <c r="G56" s="5">
+        <v>440278</v>
+      </c>
+      <c r="H56" s="5">
+        <v>442350</v>
+      </c>
+      <c r="I56" s="5">
+        <v>441912</v>
+      </c>
+      <c r="J56" s="22">
+        <v>440115</v>
+      </c>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="5">
+        <f>MIN(F56:O56)</f>
+        <v>440115</v>
+      </c>
+      <c r="Q56" s="13">
+        <f t="shared" ref="Q56:Q59" si="26">P56/E56-1</f>
+        <v>-7.3069381582910209E-2</v>
+      </c>
+      <c r="R56" s="5">
+        <f>AVERAGE(F56:O56)</f>
+        <v>441438.8</v>
+      </c>
+      <c r="S56" s="13">
+        <f t="shared" ref="S56:S59" si="27">R56/E56-1</f>
+        <v>-7.02813131174852E-2</v>
+      </c>
+      <c r="T56" s="21">
+        <f>_xlfn.STDEV.P(F56:O56)</f>
+        <v>1035.8133808751459</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="65"/>
+      <c r="C57" s="19" t="str">
+        <f t="shared" ref="C57:E57" si="28">C9</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D57" s="11">
+        <f t="shared" si="28"/>
+        <v>1075</v>
+      </c>
+      <c r="E57" s="17">
+        <f t="shared" si="28"/>
+        <v>1534878</v>
+      </c>
+      <c r="F57" s="22">
+        <v>1542155</v>
+      </c>
+      <c r="G57" s="22">
+        <v>1543811</v>
+      </c>
+      <c r="H57" s="22">
+        <v>1543759</v>
+      </c>
+      <c r="I57" s="22">
+        <v>1540369</v>
+      </c>
+      <c r="J57" s="22">
+        <v>1537464</v>
+      </c>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="5">
+        <f>MIN(F57:O57)</f>
+        <v>1537464</v>
+      </c>
+      <c r="Q57" s="13">
+        <f t="shared" si="26"/>
+        <v>1.6848244616185504E-3</v>
+      </c>
+      <c r="R57" s="5">
+        <f>AVERAGE(F57:O57)</f>
+        <v>1541511.6</v>
+      </c>
+      <c r="S57" s="13">
+        <f t="shared" si="27"/>
+        <v>4.321907018017157E-3</v>
+      </c>
+      <c r="T57" s="21">
+        <f>_xlfn.STDEV.P(F57:O57)</f>
+        <v>2384.9784569257645</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="65">
+        <v>0.15</v>
+      </c>
+      <c r="C58" s="19" t="str">
+        <f t="shared" ref="C58:E58" si="29">C10</f>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D58" s="11">
+        <f t="shared" si="29"/>
+        <v>1212</v>
+      </c>
+      <c r="E58" s="17">
+        <f t="shared" si="29"/>
+        <v>1748829</v>
+      </c>
+      <c r="F58" s="22">
+        <v>1763070</v>
+      </c>
+      <c r="G58" s="22">
+        <v>1765797</v>
+      </c>
+      <c r="H58" s="22">
+        <v>1757651</v>
+      </c>
+      <c r="I58" s="22">
+        <v>1767241</v>
+      </c>
+      <c r="J58" s="22">
+        <v>1758948</v>
+      </c>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="5">
+        <f>MIN(F58:O58)</f>
+        <v>1757651</v>
+      </c>
+      <c r="Q58" s="13">
+        <f t="shared" si="26"/>
+        <v>5.0445183605716259E-3</v>
+      </c>
+      <c r="R58" s="5">
+        <f>AVERAGE(F58:O58)</f>
+        <v>1762541.4</v>
+      </c>
+      <c r="S58" s="13">
+        <f t="shared" si="27"/>
+        <v>7.8409038276467946E-3</v>
+      </c>
+      <c r="T58" s="21">
+        <f>_xlfn.STDEV.P(F58:O58)</f>
+        <v>3736.1243341195163</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="67"/>
+      <c r="C59" s="30" t="str">
+        <f t="shared" ref="C59:E59" si="30">C11</f>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D59" s="24">
+        <f t="shared" si="30"/>
+        <v>1792</v>
+      </c>
+      <c r="E59" s="31">
+        <f t="shared" si="30"/>
+        <v>2199275</v>
+      </c>
+      <c r="F59" s="32">
+        <v>2217033</v>
+      </c>
+      <c r="G59" s="32">
+        <v>2211630</v>
+      </c>
+      <c r="H59" s="32">
+        <v>2222844</v>
+      </c>
+      <c r="I59" s="32">
+        <v>2219838</v>
+      </c>
+      <c r="J59" s="32">
+        <v>2227485</v>
+      </c>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="32">
+        <f>MIN(F59:O59)</f>
+        <v>2211630</v>
+      </c>
+      <c r="Q59" s="34">
+        <f t="shared" si="26"/>
+        <v>5.6177603983131874E-3</v>
+      </c>
+      <c r="R59" s="32">
+        <f>AVERAGE(F59:O59)</f>
+        <v>2219766</v>
+      </c>
+      <c r="S59" s="34">
+        <f t="shared" si="27"/>
+        <v>9.3171613372589057E-3</v>
+      </c>
+      <c r="T59" s="43">
+        <f>_xlfn.STDEV.P(F59:O59)</f>
+        <v>5342.7710787567903</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="26"/>
+      <c r="F62" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="47"/>
+    </row>
+    <row r="63" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="11"/>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>2</v>
+      </c>
+      <c r="H63" s="4">
+        <v>3</v>
+      </c>
+      <c r="I63" s="4">
+        <v>4</v>
+      </c>
+      <c r="J63" s="4">
+        <v>5</v>
+      </c>
+      <c r="K63" s="4">
+        <v>6</v>
+      </c>
+      <c r="L63" s="4">
+        <v>7</v>
+      </c>
+      <c r="M63" s="4">
+        <v>8</v>
+      </c>
+      <c r="N63" s="4">
+        <v>9</v>
+      </c>
+      <c r="O63" s="2">
+        <v>10</v>
+      </c>
+      <c r="P63" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S63" s="47"/>
+      <c r="T63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="18" t="str">
+        <f>C7</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" ref="D64:E64" si="31">D7</f>
+        <v>375</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" si="31"/>
+        <v>1602229</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1615697</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1619575</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1620413</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1622402</v>
+      </c>
+      <c r="J64" s="23">
+        <v>1624792</v>
+      </c>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="5">
+        <f>MIN(F64:O64)</f>
+        <v>1615697</v>
+      </c>
+      <c r="Q64" s="13">
+        <f>P64/E64-1</f>
+        <v>8.4057896842462121E-3</v>
+      </c>
+      <c r="R64" s="5">
+        <f>AVERAGE(F64:O64)</f>
+        <v>1620575.8</v>
+      </c>
+      <c r="S64" s="13">
+        <f>R64/E64-1</f>
+        <v>1.1450797607583052E-2</v>
+      </c>
+      <c r="T64" s="21">
+        <f>_xlfn.STDEV.P(F64:O64)</f>
+        <v>3031.242082051514</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="C65" s="19" t="str">
+        <f t="shared" ref="C65:E65" si="32">C8</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D65" s="11">
+        <f t="shared" si="32"/>
+        <v>780</v>
+      </c>
+      <c r="E65" s="17">
+        <f t="shared" si="32"/>
+        <v>474809</v>
+      </c>
+      <c r="F65" s="5">
+        <v>443164</v>
+      </c>
+      <c r="G65" s="5">
+        <v>439252</v>
+      </c>
+      <c r="H65" s="5">
+        <v>443918</v>
+      </c>
+      <c r="I65" s="5">
+        <v>441057</v>
+      </c>
+      <c r="J65" s="22">
+        <v>441512</v>
+      </c>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="5">
+        <f>MIN(F65:O65)</f>
+        <v>439252</v>
+      </c>
+      <c r="Q65" s="13">
+        <f t="shared" ref="Q65:Q68" si="33">P65/E65-1</f>
+        <v>-7.48869545438271E-2</v>
+      </c>
+      <c r="R65" s="5">
+        <f>AVERAGE(F65:O65)</f>
+        <v>441780.6</v>
+      </c>
+      <c r="S65" s="13">
+        <f t="shared" ref="S65:S68" si="34">R65/E65-1</f>
+        <v>-6.9561444707240239E-2</v>
+      </c>
+      <c r="T65" s="21">
+        <f>_xlfn.STDEV.P(F65:O65)</f>
+        <v>1641.4527224382675</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="65"/>
+      <c r="C66" s="19" t="str">
+        <f t="shared" ref="C66:E66" si="35">C9</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D66" s="11">
+        <f t="shared" si="35"/>
+        <v>1075</v>
+      </c>
+      <c r="E66" s="17">
+        <f t="shared" si="35"/>
+        <v>1534878</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1546507</v>
+      </c>
+      <c r="G66" s="22">
+        <v>1545916</v>
+      </c>
+      <c r="H66" s="22">
+        <v>1550657</v>
+      </c>
+      <c r="I66" s="22">
+        <v>1543619</v>
+      </c>
+      <c r="J66" s="22">
+        <v>1545767</v>
+      </c>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="5">
+        <f>MIN(F66:O66)</f>
+        <v>1543619</v>
+      </c>
+      <c r="Q66" s="13">
+        <f t="shared" si="33"/>
+        <v>5.6949151658958197E-3</v>
+      </c>
+      <c r="R66" s="5">
+        <f>AVERAGE(F66:O66)</f>
+        <v>1546493.2</v>
+      </c>
+      <c r="S66" s="13">
+        <f t="shared" si="34"/>
+        <v>7.5675069940412953E-3</v>
+      </c>
+      <c r="T66" s="21">
+        <f>_xlfn.STDEV.P(F66:O66)</f>
+        <v>2300.3900886588781</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="65">
+        <v>0.15</v>
+      </c>
+      <c r="C67" s="19" t="str">
+        <f t="shared" ref="C67:E67" si="36">C10</f>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D67" s="11">
+        <f t="shared" si="36"/>
+        <v>1212</v>
+      </c>
+      <c r="E67" s="17">
+        <f t="shared" si="36"/>
+        <v>1748829</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1771905</v>
+      </c>
+      <c r="G67" s="22">
+        <v>1759893</v>
+      </c>
+      <c r="H67" s="22">
+        <v>1767474</v>
+      </c>
+      <c r="I67" s="22">
+        <v>1764629</v>
+      </c>
+      <c r="J67" s="22">
+        <v>1760550</v>
+      </c>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="5">
+        <f>MIN(F67:O67)</f>
+        <v>1759893</v>
+      </c>
+      <c r="Q67" s="13">
+        <f t="shared" si="33"/>
+        <v>6.3265190593249088E-3</v>
+      </c>
+      <c r="R67" s="5">
+        <f>AVERAGE(F67:O67)</f>
+        <v>1764890.2</v>
+      </c>
+      <c r="S67" s="13">
+        <f t="shared" si="34"/>
+        <v>9.1839739620054317E-3</v>
+      </c>
+      <c r="T67" s="21">
+        <f>_xlfn.STDEV.P(F67:O67)</f>
+        <v>4466.7887973352854</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="67"/>
+      <c r="C68" s="30" t="str">
+        <f t="shared" ref="C68:E68" si="37">C11</f>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D68" s="24">
+        <f t="shared" si="37"/>
+        <v>1792</v>
+      </c>
+      <c r="E68" s="31">
+        <f t="shared" si="37"/>
+        <v>2199275</v>
+      </c>
+      <c r="F68" s="32">
+        <v>2213477</v>
+      </c>
+      <c r="G68" s="32">
+        <v>2215030</v>
+      </c>
+      <c r="H68" s="32">
+        <v>2212258</v>
+      </c>
+      <c r="I68" s="32">
+        <v>2207600</v>
+      </c>
+      <c r="J68" s="32">
+        <v>2217800</v>
+      </c>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="32">
+        <f>MIN(F68:O68)</f>
+        <v>2207600</v>
+      </c>
+      <c r="Q68" s="34">
+        <f t="shared" si="33"/>
+        <v>3.7853383501380566E-3</v>
+      </c>
+      <c r="R68" s="32">
+        <f>AVERAGE(F68:O68)</f>
+        <v>2213233</v>
+      </c>
+      <c r="S68" s="34">
+        <f t="shared" si="34"/>
+        <v>6.3466369599072259E-3</v>
+      </c>
+      <c r="T68" s="43">
+        <f>_xlfn.STDEV.P(F68:O68)</f>
+        <v>3371.2771467205125</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="67">
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="F62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="F44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="R4:S4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G10 K10 O10 S10 W10">
+    <cfRule type="top10" dxfId="14" priority="19" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11 K11 O11 S11 W11">
+    <cfRule type="top10" dxfId="13" priority="20" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9 K9 O9 S9 W9">
+    <cfRule type="top10" dxfId="12" priority="18" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 K8 O8 S8 W8">
+    <cfRule type="top10" dxfId="11" priority="17" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 K7 O7 S7 W7">
+    <cfRule type="top10" dxfId="10" priority="16" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974CF163-AA45-402C-B3A0-96AD5C4E5608}">
+  <dimension ref="B2:Y50"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="59">
+        <v>2</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="59">
+        <f>B18</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="59">
+        <f>B27</f>
+        <v>8</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="59">
+        <f>B36</f>
+        <v>16</v>
+      </c>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="59">
+        <f>B45</f>
+        <v>25</v>
+      </c>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="61"/>
+    </row>
+    <row r="4" spans="2:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="47"/>
+      <c r="N4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="45"/>
+      <c r="P4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="47"/>
+      <c r="V4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="45"/>
+      <c r="X4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="45"/>
+    </row>
+    <row r="5" spans="2:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>375</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1602229</v>
+      </c>
+      <c r="F6" s="23">
+        <f>Comparison!N6</f>
+        <v>1615420</v>
+      </c>
+      <c r="G6" s="14">
+        <f>Comparison!O6</f>
+        <v>8.2329055334786627E-3</v>
+      </c>
+      <c r="H6" s="23">
+        <f>Comparison!P6</f>
+        <v>1621760.4</v>
+      </c>
+      <c r="I6" s="12">
+        <f>Comparison!Q6</f>
+        <v>1.2190142607579668E-2</v>
+      </c>
+      <c r="J6" s="23">
+        <f>P18</f>
+        <v>1613664</v>
+      </c>
+      <c r="K6" s="14">
+        <f>Q18</f>
+        <v>7.1369323611043534E-3</v>
+      </c>
+      <c r="L6" s="23">
+        <f>R18</f>
+        <v>1617280</v>
+      </c>
+      <c r="M6" s="12">
+        <f>S18</f>
+        <v>9.3937882787042959E-3</v>
+      </c>
+      <c r="N6" s="23">
+        <f>P27</f>
+        <v>1612441</v>
+      </c>
+      <c r="O6" s="14">
+        <f>Q27</f>
+        <v>6.3736207495932451E-3</v>
+      </c>
+      <c r="P6" s="23">
+        <f>R27</f>
+        <v>1616960.8</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>S27</f>
+        <v>9.1945658204912739E-3</v>
+      </c>
+      <c r="R6" s="23">
+        <f>P36</f>
+        <v>1616536</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" ref="S6" si="0">Q36</f>
+        <v>8.9294351806139538E-3</v>
+      </c>
+      <c r="T6" s="23">
+        <f t="shared" ref="T6" si="1">R36</f>
+        <v>1618726.4</v>
+      </c>
+      <c r="U6" s="12">
+        <f t="shared" ref="U6" si="2">S36</f>
+        <v>1.0296530645744095E-2</v>
+      </c>
+      <c r="V6" s="23">
+        <f>P45</f>
+        <v>1613211</v>
+      </c>
+      <c r="W6" s="14">
+        <f t="shared" ref="W6" si="3">Q45</f>
+        <v>6.8542012408963071E-3</v>
+      </c>
+      <c r="X6" s="23">
+        <f t="shared" ref="X6" si="4">R45</f>
+        <v>1618840</v>
+      </c>
+      <c r="Y6" s="12">
+        <f t="shared" ref="Y6" si="5">S45</f>
+        <v>1.0367431871474153E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="52"/>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11">
+        <v>780</v>
+      </c>
+      <c r="E7" s="17">
+        <v>474809</v>
+      </c>
+      <c r="F7" s="22">
+        <f>Comparison!N7</f>
+        <v>439830</v>
+      </c>
+      <c r="G7" s="15">
+        <f>Comparison!O7</f>
+        <v>-7.3669622943120294E-2</v>
+      </c>
+      <c r="H7" s="22">
+        <f>Comparison!P7</f>
+        <v>441952.2</v>
+      </c>
+      <c r="I7" s="13">
+        <f>Comparison!Q7</f>
+        <v>-6.9200036225092632E-2</v>
+      </c>
+      <c r="J7" s="22">
+        <f>P19</f>
+        <v>439513</v>
+      </c>
+      <c r="K7" s="15">
+        <f>Q19</f>
+        <v>-7.4337259824476809E-2</v>
+      </c>
+      <c r="L7" s="22">
+        <f>R19</f>
+        <v>441583</v>
+      </c>
+      <c r="M7" s="13">
+        <f>S19</f>
+        <v>-6.997761205031916E-2</v>
+      </c>
+      <c r="N7" s="22">
+        <f>P28</f>
+        <v>439407</v>
+      </c>
+      <c r="O7" s="15">
+        <f>Q28</f>
+        <v>-7.4560507488274252E-2</v>
+      </c>
+      <c r="P7" s="22">
+        <f>R28</f>
+        <v>440724.4</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>S28</f>
+        <v>-7.1785918127078463E-2</v>
+      </c>
+      <c r="R7" s="22">
+        <f>P37</f>
+        <v>438473</v>
+      </c>
+      <c r="S7" s="15">
+        <f t="shared" ref="S7:U8" si="6">Q37</f>
+        <v>-7.6527614261734711E-2</v>
+      </c>
+      <c r="T7" s="22">
+        <f t="shared" si="6"/>
+        <v>440155.8</v>
+      </c>
+      <c r="U7" s="13">
+        <f t="shared" si="6"/>
+        <v>-7.2983452293448603E-2</v>
+      </c>
+      <c r="V7" s="22">
+        <f>P46</f>
+        <v>438870</v>
+      </c>
+      <c r="W7" s="15">
+        <f t="shared" ref="W7:Y8" si="7">Q46</f>
+        <v>-7.5691488577512178E-2</v>
+      </c>
+      <c r="X7" s="22">
+        <f t="shared" si="7"/>
+        <v>440808</v>
+      </c>
+      <c r="Y7" s="13">
+        <f t="shared" si="7"/>
+        <v>-7.1609847328083509E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="52"/>
+      <c r="C8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1075</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1534878</v>
+      </c>
+      <c r="F8" s="22">
+        <f>Comparison!N8</f>
+        <v>1540668</v>
+      </c>
+      <c r="G8" s="15">
+        <f>Comparison!O8</f>
+        <v>3.7722867876144317E-3</v>
+      </c>
+      <c r="H8" s="22">
+        <f>Comparison!P8</f>
+        <v>1543291.1</v>
+      </c>
+      <c r="I8" s="13">
+        <f>Comparison!Q8</f>
+        <v>5.4812825514471974E-3</v>
+      </c>
+      <c r="J8" s="22">
+        <f>P20</f>
+        <v>1538857</v>
+      </c>
+      <c r="K8" s="15">
+        <f>Q20</f>
+        <v>2.5923884504175376E-3</v>
+      </c>
+      <c r="L8" s="22">
+        <f>R20</f>
+        <v>1546395.2</v>
+      </c>
+      <c r="M8" s="13">
+        <f>S20</f>
+        <v>7.5036582712111333E-3</v>
+      </c>
+      <c r="N8" s="22">
+        <f>P29</f>
+        <v>1535747</v>
+      </c>
+      <c r="O8" s="15">
+        <f>Q29</f>
+        <v>5.6616877693205225E-4</v>
+      </c>
+      <c r="P8" s="22">
+        <f>R29</f>
+        <v>1543693.8</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>S29</f>
+        <v>5.7436486808724041E-3</v>
+      </c>
+      <c r="R8" s="22">
+        <f t="shared" ref="R8:R10" si="8">P38</f>
+        <v>1537967</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="6"/>
+        <v>2.0125378043076569E-3</v>
+      </c>
+      <c r="T8" s="22">
+        <f t="shared" si="6"/>
+        <v>1547114</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="6"/>
+        <v>7.9719691076425292E-3</v>
+      </c>
+      <c r="V8" s="22">
+        <f t="shared" ref="V8:V10" si="9">P47</f>
+        <v>1545190</v>
+      </c>
+      <c r="W8" s="15">
+        <f t="shared" si="7"/>
+        <v>6.7184492839169607E-3</v>
+      </c>
+      <c r="X8" s="22">
+        <f t="shared" si="7"/>
+        <v>1549265</v>
+      </c>
+      <c r="Y8" s="13">
+        <f t="shared" si="7"/>
+        <v>9.3733834220048884E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
+      <c r="C9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1212</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1748829</v>
+      </c>
+      <c r="F9" s="22">
+        <f>Comparison!N9</f>
+        <v>1757911</v>
+      </c>
+      <c r="G9" s="15">
+        <f>Comparison!O9</f>
+        <v>5.1931892712209216E-3</v>
+      </c>
+      <c r="H9" s="22">
+        <f>Comparison!P9</f>
+        <v>1765520.7</v>
+      </c>
+      <c r="I9" s="13">
+        <f>Comparison!Q9</f>
+        <v>9.5445009203301012E-3</v>
+      </c>
+      <c r="J9" s="22">
+        <f>P21</f>
+        <v>1758534</v>
+      </c>
+      <c r="K9" s="15">
+        <f>Q21</f>
+        <v>5.5494276455845259E-3</v>
+      </c>
+      <c r="L9" s="22">
+        <f>R21</f>
+        <v>1762113</v>
+      </c>
+      <c r="M9" s="13">
+        <f>S21</f>
+        <v>7.5959399117924153E-3</v>
+      </c>
+      <c r="N9" s="22">
+        <f>P30</f>
+        <v>1751337</v>
+      </c>
+      <c r="O9" s="15">
+        <f>Q30</f>
+        <v>1.4341024765713861E-3</v>
+      </c>
+      <c r="P9" s="22">
+        <f>R30</f>
+        <v>1760585.8</v>
+      </c>
+      <c r="Q9" s="13">
+        <f>S30</f>
+        <v>6.7226698550859609E-3</v>
+      </c>
+      <c r="R9" s="22">
+        <f t="shared" si="8"/>
+        <v>1751392</v>
+      </c>
+      <c r="S9" s="15">
+        <f t="shared" ref="S9:S10" si="10">Q39</f>
+        <v>1.4655520922857157E-3</v>
+      </c>
+      <c r="T9" s="22">
+        <f t="shared" ref="T9:T10" si="11">R39</f>
+        <v>1755599.6</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" ref="U9:U10" si="12">S39</f>
+        <v>3.8715048755482151E-3</v>
+      </c>
+      <c r="V9" s="22">
+        <f t="shared" si="9"/>
+        <v>1747652</v>
+      </c>
+      <c r="W9" s="15">
+        <f t="shared" ref="W9:W10" si="13">Q48</f>
+        <v>-6.7302177628569826E-4</v>
+      </c>
+      <c r="X9" s="22">
+        <f t="shared" ref="X9:X10" si="14">R48</f>
+        <v>1756844</v>
+      </c>
+      <c r="Y9" s="13">
+        <f t="shared" ref="Y9:Y10" si="15">S48</f>
+        <v>4.5830667263637714E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="53"/>
+      <c r="C10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1792</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2199275</v>
+      </c>
+      <c r="F10" s="32">
+        <f>Comparison!N10</f>
+        <v>2204970</v>
+      </c>
+      <c r="G10" s="33">
+        <f>Comparison!O10</f>
+        <v>2.5894897182026089E-3</v>
+      </c>
+      <c r="H10" s="32">
+        <f>Comparison!P10</f>
+        <v>2215325.7000000002</v>
+      </c>
+      <c r="I10" s="34">
+        <f>Comparison!Q10</f>
+        <v>7.2981778085960958E-3</v>
+      </c>
+      <c r="J10" s="32">
+        <f>P22</f>
+        <v>2208115</v>
+      </c>
+      <c r="K10" s="33">
+        <f>Q22</f>
+        <v>4.01950642825466E-3</v>
+      </c>
+      <c r="L10" s="32">
+        <f>R22</f>
+        <v>2214791</v>
+      </c>
+      <c r="M10" s="34">
+        <f>S22</f>
+        <v>7.0550522331223053E-3</v>
+      </c>
+      <c r="N10" s="32">
+        <f>P31</f>
+        <v>2211521</v>
+      </c>
+      <c r="O10" s="33">
+        <f>Q31</f>
+        <v>5.5681986109059611E-3</v>
+      </c>
+      <c r="P10" s="32">
+        <f>R31</f>
+        <v>2215200</v>
+      </c>
+      <c r="Q10" s="34">
+        <f>S31</f>
+        <v>7.2410226097237018E-3</v>
+      </c>
+      <c r="R10" s="32">
+        <f t="shared" si="8"/>
+        <v>2201619</v>
+      </c>
+      <c r="S10" s="33">
+        <f t="shared" si="10"/>
+        <v>1.0658057769037388E-3</v>
+      </c>
+      <c r="T10" s="32">
+        <f t="shared" si="11"/>
+        <v>2207897.4</v>
+      </c>
+      <c r="U10" s="34">
+        <f t="shared" si="12"/>
+        <v>3.9205647315592174E-3</v>
+      </c>
+      <c r="V10" s="32">
+        <f t="shared" si="9"/>
+        <v>2206270</v>
+      </c>
+      <c r="W10" s="33">
+        <f t="shared" si="13"/>
+        <v>3.1805936047106798E-3</v>
+      </c>
+      <c r="X10" s="32">
+        <f t="shared" si="14"/>
+        <v>2211841.4</v>
+      </c>
+      <c r="Y10" s="34">
+        <f t="shared" si="15"/>
+        <v>5.7138829841651972E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="29"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="47"/>
+    </row>
+    <row r="17" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4">
+        <v>7</v>
+      </c>
+      <c r="M17" s="4">
+        <v>8</v>
+      </c>
+      <c r="N17" s="4">
+        <v>9</v>
+      </c>
+      <c r="O17" s="2">
+        <v>10</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="47"/>
+      <c r="T17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="62">
+        <v>4</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" ref="D18:E18" si="16">D6</f>
+        <v>375</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="16"/>
+        <v>1602229</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1615025</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1620829</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1622008</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1614874</v>
+      </c>
+      <c r="J18" s="23">
+        <v>1613664</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="5">
+        <f>MIN(F18:O18)</f>
+        <v>1613664</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>P18/E18-1</f>
+        <v>7.1369323611043534E-3</v>
+      </c>
+      <c r="R18" s="5">
+        <f>AVERAGE(F18:O18)</f>
+        <v>1617280</v>
+      </c>
+      <c r="S18" s="13">
+        <f>R18/E18-1</f>
+        <v>9.3937882787042959E-3</v>
+      </c>
+      <c r="T18" s="21">
+        <f>_xlfn.STDEV.P(F18:O18)</f>
+        <v>3432.1626418338628</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="63"/>
+      <c r="C19" s="19" t="str">
+        <f t="shared" ref="C19:E22" si="17">C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="17"/>
+        <v>780</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="17"/>
+        <v>474809</v>
+      </c>
+      <c r="F19" s="5">
+        <v>441749</v>
+      </c>
+      <c r="G19" s="5">
+        <v>442171</v>
+      </c>
+      <c r="H19" s="5">
+        <v>441614</v>
+      </c>
+      <c r="I19" s="5">
+        <v>442868</v>
+      </c>
+      <c r="J19" s="22">
+        <v>439513</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="5">
+        <f t="shared" ref="P19:P22" si="18">MIN(F19:O19)</f>
+        <v>439513</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" ref="Q19:Q22" si="19">P19/E19-1</f>
+        <v>-7.4337259824476809E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" ref="R19:R22" si="20">AVERAGE(F19:O19)</f>
+        <v>441583</v>
+      </c>
+      <c r="S19" s="13">
+        <f t="shared" ref="S19:S22" si="21">R19/E19-1</f>
+        <v>-6.997761205031916E-2</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" ref="T19:T22" si="22">_xlfn.STDEV.P(F19:O19)</f>
+        <v>1123.4220934270431</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="63"/>
+      <c r="C20" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="17"/>
+        <v>1075</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="17"/>
+        <v>1534878</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1546737</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1548428</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1553099</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1544855</v>
+      </c>
+      <c r="J20" s="22">
+        <v>1538857</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="5">
+        <f t="shared" si="18"/>
+        <v>1538857</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="19"/>
+        <v>2.5923884504175376E-3</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="20"/>
+        <v>1546395.2</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="21"/>
+        <v>7.5036582712111333E-3</v>
+      </c>
+      <c r="T20" s="21">
+        <f t="shared" si="22"/>
+        <v>4655.8933149289405</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="63"/>
+      <c r="C21" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="17"/>
+        <v>1212</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="17"/>
+        <v>1748829</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1761528</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1758534</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1758710</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1764783</v>
+      </c>
+      <c r="J21" s="22">
+        <v>1767010</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="5">
+        <f t="shared" si="18"/>
+        <v>1758534</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="19"/>
+        <v>5.5494276455845259E-3</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="20"/>
+        <v>1762113</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="21"/>
+        <v>7.5959399117924153E-3</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" si="22"/>
+        <v>3341.8971857314823</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="64"/>
+      <c r="C22" s="30" t="str">
+        <f t="shared" si="17"/>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D22" s="24">
+        <f t="shared" si="17"/>
+        <v>1792</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="17"/>
+        <v>2199275</v>
+      </c>
+      <c r="F22" s="32">
+        <v>2208115</v>
+      </c>
+      <c r="G22" s="32">
+        <v>2213952</v>
+      </c>
+      <c r="H22" s="32">
+        <v>2210454</v>
+      </c>
+      <c r="I22" s="32">
+        <v>2223994</v>
+      </c>
+      <c r="J22" s="32">
+        <v>2217440</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32">
+        <f t="shared" si="18"/>
+        <v>2208115</v>
+      </c>
+      <c r="Q22" s="34">
+        <f t="shared" si="19"/>
+        <v>4.01950642825466E-3</v>
+      </c>
+      <c r="R22" s="32">
+        <f t="shared" si="20"/>
+        <v>2214791</v>
+      </c>
+      <c r="S22" s="34">
+        <f t="shared" si="21"/>
+        <v>7.0550522331223053E-3</v>
+      </c>
+      <c r="T22" s="43">
+        <f t="shared" si="22"/>
+        <v>5582.0225008503858</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+      <c r="F25" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="47"/>
+    </row>
+    <row r="26" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>6</v>
+      </c>
+      <c r="L26" s="4">
+        <v>7</v>
+      </c>
+      <c r="M26" s="4">
+        <v>8</v>
+      </c>
+      <c r="N26" s="4">
+        <v>9</v>
+      </c>
+      <c r="O26" s="2">
+        <v>10</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="47"/>
+      <c r="T26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="62">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" ref="D27:E27" si="23">D6</f>
+        <v>375</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="23"/>
+        <v>1602229</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1616604</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1612441</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1614028</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1622665</v>
+      </c>
+      <c r="J27" s="23">
+        <v>1619066</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="5">
+        <f>MIN(F27:O27)</f>
+        <v>1612441</v>
+      </c>
+      <c r="Q27" s="13">
+        <f>P27/E27-1</f>
+        <v>6.3736207495932451E-3</v>
+      </c>
+      <c r="R27" s="5">
+        <f>AVERAGE(F27:O27)</f>
+        <v>1616960.8</v>
+      </c>
+      <c r="S27" s="13">
+        <f>R27/E27-1</f>
+        <v>9.1945658204912739E-3</v>
+      </c>
+      <c r="T27" s="21">
+        <f>_xlfn.STDEV.P(F27:O27)</f>
+        <v>3636.6737219607703</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="63"/>
+      <c r="C28" s="19" t="str">
+        <f t="shared" ref="C28:E31" si="24">C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="24"/>
+        <v>780</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="24"/>
+        <v>474809</v>
+      </c>
+      <c r="F28" s="5">
+        <v>441502</v>
+      </c>
+      <c r="G28" s="5">
+        <v>439407</v>
+      </c>
+      <c r="H28" s="5">
+        <v>440092</v>
+      </c>
+      <c r="I28" s="5">
+        <v>442570</v>
+      </c>
+      <c r="J28" s="22">
+        <v>440051</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="5">
+        <f t="shared" ref="P28:P31" si="25">MIN(F28:O28)</f>
+        <v>439407</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" ref="Q28:Q31" si="26">P28/E28-1</f>
+        <v>-7.4560507488274252E-2</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" ref="R28:R31" si="27">AVERAGE(F28:O28)</f>
+        <v>440724.4</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" ref="S28:S31" si="28">R28/E28-1</f>
+        <v>-7.1785918127078463E-2</v>
+      </c>
+      <c r="T28" s="21">
+        <f t="shared" ref="T28:T31" si="29">_xlfn.STDEV.P(F28:O28)</f>
+        <v>1148.8987074585818</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="63"/>
+      <c r="C29" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="24"/>
+        <v>1075</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="24"/>
+        <v>1534878</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1535747</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1550361</v>
+      </c>
+      <c r="H29" s="22">
+        <v>1547121</v>
+      </c>
+      <c r="I29" s="22">
+        <v>1545997</v>
+      </c>
+      <c r="J29" s="22">
+        <v>1539243</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="5">
+        <f t="shared" si="25"/>
+        <v>1535747</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="26"/>
+        <v>5.6616877693205225E-4</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="27"/>
+        <v>1543693.8</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" si="28"/>
+        <v>5.7436486808724041E-3</v>
+      </c>
+      <c r="T29" s="21">
+        <f t="shared" si="29"/>
+        <v>5375.1881232195019</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="63"/>
+      <c r="C30" s="19" t="str">
+        <f t="shared" si="24"/>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="24"/>
+        <v>1212</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="24"/>
+        <v>1748829</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1758421</v>
+      </c>
+      <c r="G30" s="22">
+        <v>1757600</v>
+      </c>
+      <c r="H30" s="22">
+        <v>1766321</v>
+      </c>
+      <c r="I30" s="22">
+        <v>1751337</v>
+      </c>
+      <c r="J30" s="22">
+        <v>1769250</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="5">
+        <f t="shared" si="25"/>
+        <v>1751337</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="26"/>
+        <v>1.4341024765713861E-3</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="27"/>
+        <v>1760585.8</v>
+      </c>
+      <c r="S30" s="13">
+        <f t="shared" si="28"/>
+        <v>6.7226698550859609E-3</v>
+      </c>
+      <c r="T30" s="21">
+        <f t="shared" si="29"/>
+        <v>6435.8766737718024</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="64"/>
+      <c r="C31" s="30" t="str">
+        <f t="shared" si="24"/>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D31" s="24">
+        <f t="shared" si="24"/>
+        <v>1792</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="24"/>
+        <v>2199275</v>
+      </c>
+      <c r="F31" s="32">
+        <v>2212347</v>
+      </c>
+      <c r="G31" s="32">
+        <v>2211521</v>
+      </c>
+      <c r="H31" s="32">
+        <v>2217817</v>
+      </c>
+      <c r="I31" s="32">
+        <v>2216058</v>
+      </c>
+      <c r="J31" s="32">
+        <v>2218257</v>
+      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="32">
+        <f t="shared" si="25"/>
+        <v>2211521</v>
+      </c>
+      <c r="Q31" s="34">
+        <f t="shared" si="26"/>
+        <v>5.5681986109059611E-3</v>
+      </c>
+      <c r="R31" s="32">
+        <f t="shared" si="27"/>
+        <v>2215200</v>
+      </c>
+      <c r="S31" s="34">
+        <f t="shared" si="28"/>
+        <v>7.2410226097237018E-3</v>
+      </c>
+      <c r="T31" s="43">
+        <f t="shared" si="29"/>
+        <v>2778.6598208488927</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="26"/>
+      <c r="F34" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="47"/>
+    </row>
+    <row r="35" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>4</v>
+      </c>
+      <c r="J35" s="4">
+        <v>5</v>
+      </c>
+      <c r="K35" s="4">
+        <v>6</v>
+      </c>
+      <c r="L35" s="4">
+        <v>7</v>
+      </c>
+      <c r="M35" s="4">
+        <v>8</v>
+      </c>
+      <c r="N35" s="4">
+        <v>9</v>
+      </c>
+      <c r="O35" s="2">
+        <v>10</v>
+      </c>
+      <c r="P35" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="47"/>
+      <c r="T35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="62">
+        <v>16</v>
+      </c>
+      <c r="C36" s="18" t="str">
+        <f>C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D36" s="10">
+        <f>D6</f>
+        <v>375</v>
+      </c>
+      <c r="E36" s="16">
+        <f>E6</f>
+        <v>1602229</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1617531</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1621526</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1616536</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1621326</v>
+      </c>
+      <c r="J36" s="23">
+        <v>1616713</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="5">
+        <f>MIN(F36:O36)</f>
+        <v>1616536</v>
+      </c>
+      <c r="Q36" s="13">
+        <f>P36/E36-1</f>
+        <v>8.9294351806139538E-3</v>
+      </c>
+      <c r="R36" s="5">
+        <f>AVERAGE(F36:O36)</f>
+        <v>1618726.4</v>
+      </c>
+      <c r="S36" s="13">
+        <f>R36/E36-1</f>
+        <v>1.0296530645744095E-2</v>
+      </c>
+      <c r="T36" s="21">
+        <f>_xlfn.STDEV.P(F36:O36)</f>
+        <v>2230.5287803568012</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="63"/>
+      <c r="C37" s="19" t="str">
+        <f>C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D37" s="11">
+        <f>D7</f>
+        <v>780</v>
+      </c>
+      <c r="E37" s="17">
+        <f>E7</f>
+        <v>474809</v>
+      </c>
+      <c r="F37" s="5">
+        <v>440502</v>
+      </c>
+      <c r="G37" s="5">
+        <v>438473</v>
+      </c>
+      <c r="H37" s="5">
+        <v>441636</v>
+      </c>
+      <c r="I37" s="5">
+        <v>439934</v>
+      </c>
+      <c r="J37" s="22">
+        <v>440234</v>
+      </c>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="5">
+        <f>MIN(F37:O37)</f>
+        <v>438473</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" ref="Q37:Q40" si="30">P37/E37-1</f>
+        <v>-7.6527614261734711E-2</v>
+      </c>
+      <c r="R37" s="5">
+        <f>AVERAGE(F37:O37)</f>
+        <v>440155.8</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" ref="S37:S40" si="31">R37/E37-1</f>
+        <v>-7.2983452293448603E-2</v>
+      </c>
+      <c r="T37" s="21">
+        <f>_xlfn.STDEV.P(F37:O37)</f>
+        <v>1019.605100026476</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="63"/>
+      <c r="C38" s="19" t="str">
+        <f t="shared" ref="C38:E38" si="32">C8</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="32"/>
+        <v>1075</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" si="32"/>
+        <v>1534878</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1537967</v>
+      </c>
+      <c r="G38" s="22">
+        <v>1541927</v>
+      </c>
+      <c r="H38" s="22">
+        <v>1550634</v>
+      </c>
+      <c r="I38" s="22">
+        <v>1548762</v>
+      </c>
+      <c r="J38" s="22">
+        <v>1556280</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="5">
+        <f>MIN(F38:O38)</f>
+        <v>1537967</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="30"/>
+        <v>2.0125378043076569E-3</v>
+      </c>
+      <c r="R38" s="5">
+        <f>AVERAGE(F38:O38)</f>
+        <v>1547114</v>
+      </c>
+      <c r="S38" s="13">
+        <f t="shared" si="31"/>
+        <v>7.9719691076425292E-3</v>
+      </c>
+      <c r="T38" s="21">
+        <f>_xlfn.STDEV.P(F38:O38)</f>
+        <v>6476.0240580158443</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="63"/>
+      <c r="C39" s="19" t="str">
+        <f t="shared" ref="C39:E39" si="33">C9</f>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" si="33"/>
+        <v>1212</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="33"/>
+        <v>1748829</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1757317</v>
+      </c>
+      <c r="G39" s="22">
+        <v>1756829</v>
+      </c>
+      <c r="H39" s="22">
+        <v>1751392</v>
+      </c>
+      <c r="I39" s="22">
+        <v>1757702</v>
+      </c>
+      <c r="J39" s="22">
+        <v>1754758</v>
+      </c>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="5">
+        <f>MIN(F39:O39)</f>
+        <v>1751392</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="30"/>
+        <v>1.4655520922857157E-3</v>
+      </c>
+      <c r="R39" s="5">
+        <f>AVERAGE(F39:O39)</f>
+        <v>1755599.6</v>
+      </c>
+      <c r="S39" s="13">
+        <f t="shared" si="31"/>
+        <v>3.8715048755482151E-3</v>
+      </c>
+      <c r="T39" s="21">
+        <f>_xlfn.STDEV.P(F39:O39)</f>
+        <v>2336.3715971565825</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="64"/>
+      <c r="C40" s="30" t="str">
+        <f t="shared" ref="C40:E40" si="34">C10</f>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D40" s="24">
+        <f t="shared" si="34"/>
+        <v>1792</v>
+      </c>
+      <c r="E40" s="31">
+        <f t="shared" si="34"/>
+        <v>2199275</v>
+      </c>
+      <c r="F40" s="32">
+        <v>2202310</v>
+      </c>
+      <c r="G40" s="32">
+        <v>2203355</v>
+      </c>
+      <c r="H40" s="32">
+        <v>2201619</v>
+      </c>
+      <c r="I40" s="32">
+        <v>2217386</v>
+      </c>
+      <c r="J40" s="32">
+        <v>2214817</v>
+      </c>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="32">
+        <f>MIN(F40:O40)</f>
+        <v>2201619</v>
+      </c>
+      <c r="Q40" s="34">
+        <f t="shared" si="30"/>
+        <v>1.0658057769037388E-3</v>
+      </c>
+      <c r="R40" s="32">
+        <f>AVERAGE(F40:O40)</f>
+        <v>2207897.4</v>
+      </c>
+      <c r="S40" s="34">
+        <f t="shared" si="31"/>
+        <v>3.9205647315592174E-3</v>
+      </c>
+      <c r="T40" s="43">
+        <f>_xlfn.STDEV.P(F40:O40)</f>
+        <v>6770.304826224592</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="26"/>
+      <c r="F43" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="47"/>
+    </row>
+    <row r="44" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="11"/>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2</v>
+      </c>
+      <c r="H44" s="4">
+        <v>3</v>
+      </c>
+      <c r="I44" s="4">
+        <v>4</v>
+      </c>
+      <c r="J44" s="4">
+        <v>5</v>
+      </c>
+      <c r="K44" s="4">
+        <v>6</v>
+      </c>
+      <c r="L44" s="4">
+        <v>7</v>
+      </c>
+      <c r="M44" s="4">
+        <v>8</v>
+      </c>
+      <c r="N44" s="4">
+        <v>9</v>
+      </c>
+      <c r="O44" s="2">
+        <v>10</v>
+      </c>
+      <c r="P44" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="47"/>
+      <c r="T44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="62">
+        <v>25</v>
+      </c>
+      <c r="C45" s="18" t="str">
+        <f>C6</f>
+        <v>egl-g2-E</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" ref="D45:E46" si="35">D6</f>
+        <v>375</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="35"/>
+        <v>1602229</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1620190</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1623219</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1615951</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1621629</v>
+      </c>
+      <c r="J45" s="23">
+        <v>1613211</v>
+      </c>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="5">
+        <f>MIN(F45:O45)</f>
+        <v>1613211</v>
+      </c>
+      <c r="Q45" s="13">
+        <f>P45/E45-1</f>
+        <v>6.8542012408963071E-3</v>
+      </c>
+      <c r="R45" s="5">
+        <f>AVERAGE(F45:O45)</f>
+        <v>1618840</v>
+      </c>
+      <c r="S45" s="13">
+        <f>R45/E45-1</f>
+        <v>1.0367431871474153E-2</v>
+      </c>
+      <c r="T45" s="21">
+        <f>_xlfn.STDEV.P(F45:O45)</f>
+        <v>3709.6798783722566</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="63"/>
+      <c r="C46" s="19" t="str">
+        <f>C7</f>
+        <v>F1_g-6</v>
+      </c>
+      <c r="D46" s="11">
+        <f t="shared" si="35"/>
+        <v>780</v>
+      </c>
+      <c r="E46" s="17">
+        <f t="shared" si="35"/>
+        <v>474809</v>
+      </c>
+      <c r="F46" s="5">
+        <v>440829</v>
+      </c>
+      <c r="G46" s="5">
+        <v>438870</v>
+      </c>
+      <c r="H46" s="5">
+        <v>442108</v>
+      </c>
+      <c r="I46" s="5">
+        <v>440583</v>
+      </c>
+      <c r="J46" s="22">
+        <v>441650</v>
+      </c>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="5">
+        <f>MIN(F46:O46)</f>
+        <v>438870</v>
+      </c>
+      <c r="Q46" s="13">
+        <f t="shared" ref="Q46:Q49" si="36">P46/E46-1</f>
+        <v>-7.5691488577512178E-2</v>
+      </c>
+      <c r="R46" s="5">
+        <f>AVERAGE(F46:O46)</f>
+        <v>440808</v>
+      </c>
+      <c r="S46" s="13">
+        <f t="shared" ref="S46:S49" si="37">R46/E46-1</f>
+        <v>-7.1609847328083509E-2</v>
+      </c>
+      <c r="T46" s="21">
+        <f>_xlfn.STDEV.P(F46:O46)</f>
+        <v>1114.0802484560975</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="63"/>
+      <c r="C47" s="19" t="str">
+        <f t="shared" ref="C47:E47" si="38">C8</f>
+        <v>Beijing-3</v>
+      </c>
+      <c r="D47" s="11">
+        <f t="shared" si="38"/>
+        <v>1075</v>
+      </c>
+      <c r="E47" s="17">
+        <f t="shared" si="38"/>
+        <v>1534878</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1545190</v>
+      </c>
+      <c r="G47" s="22">
+        <v>1551486</v>
+      </c>
+      <c r="H47" s="22">
+        <v>1545373</v>
+      </c>
+      <c r="I47" s="22">
+        <v>1547102</v>
+      </c>
+      <c r="J47" s="22">
+        <v>1557174</v>
+      </c>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="5">
+        <f>MIN(F47:O47)</f>
+        <v>1545190</v>
+      </c>
+      <c r="Q47" s="13">
+        <f t="shared" si="36"/>
+        <v>6.7184492839169607E-3</v>
+      </c>
+      <c r="R47" s="5">
+        <f>AVERAGE(F47:O47)</f>
+        <v>1549265</v>
+      </c>
+      <c r="S47" s="13">
+        <f t="shared" si="37"/>
+        <v>9.3733834220048884E-3</v>
+      </c>
+      <c r="T47" s="21">
+        <f>_xlfn.STDEV.P(F47:O47)</f>
+        <v>4558.8810030532713</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="63"/>
+      <c r="C48" s="19" t="str">
+        <f t="shared" ref="C48:E48" si="39">C9</f>
+        <v>Hefei-10</v>
+      </c>
+      <c r="D48" s="11">
+        <f t="shared" si="39"/>
+        <v>1212</v>
+      </c>
+      <c r="E48" s="17">
+        <f t="shared" si="39"/>
+        <v>1748829</v>
+      </c>
+      <c r="F48" s="22">
+        <v>1762180</v>
+      </c>
+      <c r="G48" s="22">
+        <v>1747652</v>
+      </c>
+      <c r="H48" s="22">
+        <v>1753984</v>
+      </c>
+      <c r="I48" s="22">
+        <v>1762539</v>
+      </c>
+      <c r="J48" s="22">
+        <v>1757865</v>
+      </c>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="5">
+        <f>MIN(F48:O48)</f>
+        <v>1747652</v>
+      </c>
+      <c r="Q48" s="13">
+        <f t="shared" si="36"/>
+        <v>-6.7302177628569826E-4</v>
+      </c>
+      <c r="R48" s="5">
+        <f>AVERAGE(F48:O48)</f>
+        <v>1756844</v>
+      </c>
+      <c r="S48" s="13">
+        <f t="shared" si="37"/>
+        <v>4.5830667263637714E-3</v>
+      </c>
+      <c r="T48" s="21">
+        <f>_xlfn.STDEV.P(F48:O48)</f>
+        <v>5560.9500267490266</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="64"/>
+      <c r="C49" s="30" t="str">
+        <f t="shared" ref="C49:E49" si="40">C10</f>
+        <v>Beijing-5</v>
+      </c>
+      <c r="D49" s="24">
+        <f t="shared" si="40"/>
+        <v>1792</v>
+      </c>
+      <c r="E49" s="31">
+        <f t="shared" si="40"/>
+        <v>2199275</v>
+      </c>
+      <c r="F49" s="32">
+        <v>2210725</v>
+      </c>
+      <c r="G49" s="32">
+        <v>2207253</v>
+      </c>
+      <c r="H49" s="32">
+        <v>2216481</v>
+      </c>
+      <c r="I49" s="32">
+        <v>2206270</v>
+      </c>
+      <c r="J49" s="32">
+        <v>2218478</v>
+      </c>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="32">
+        <f>MIN(F49:O49)</f>
+        <v>2206270</v>
+      </c>
+      <c r="Q49" s="34">
+        <f t="shared" si="36"/>
+        <v>3.1805936047106798E-3</v>
+      </c>
+      <c r="R49" s="32">
+        <f>AVERAGE(F49:O49)</f>
+        <v>2211841.4</v>
+      </c>
+      <c r="S49" s="34">
+        <f t="shared" si="37"/>
+        <v>5.7138829841651972E-3</v>
+      </c>
+      <c r="T49" s="43">
+        <f>_xlfn.STDEV.P(F49:O49)</f>
+        <v>4876.6916900702263</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="F34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="F43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="F25:O25"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G9 K9 O9 S9 W9">
+    <cfRule type="top10" dxfId="24" priority="14" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 K10 O10 S10 W10">
+    <cfRule type="top10" dxfId="23" priority="15" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 K8 O8 S8 W8">
+    <cfRule type="top10" dxfId="22" priority="13" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 K7 O7 S7 W7">
+    <cfRule type="top10" dxfId="21" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 K6 O6 S6 W6">
+    <cfRule type="top10" dxfId="20" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACEBDDF-2E4A-43BA-9C94-A9709F6384C0}">
   <dimension ref="C13:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView topLeftCell="B75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="13" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="46" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="46" t="s">
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="48"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
     </row>
     <row r="15" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="44" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="44" t="s">
+      <c r="I15" s="47"/>
+      <c r="J15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="45"/>
-      <c r="L15" s="44" t="s">
+      <c r="K15" s="47"/>
+      <c r="L15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="44" t="s">
+      <c r="M15" s="47"/>
+      <c r="N15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="44" t="s">
+      <c r="O15" s="47"/>
+      <c r="P15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="45"/>
+      <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="3:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
@@ -9947,142 +15571,214 @@
         <v>442469</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>55</v>
       </c>
@@ -10140,19 +15836,19 @@
     <mergeCell ref="H15:I15"/>
   </mergeCells>
   <conditionalFormatting sqref="G17 K17">
-    <cfRule type="top10" dxfId="4" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18 K18">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 K19">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 K20">
-    <cfRule type="top10" dxfId="1" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21 K21">
-    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
